--- a/data/lojasAssaiDiff.xlsx
+++ b/data/lojasAssaiDiff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="779">
   <si>
     <t>value</t>
   </si>
@@ -377,12 +377,6 @@
   </si>
   <si>
     <t>São Bernardo do Campo</t>
-  </si>
-  <si>
-    <t>Assaí São Bernardo</t>
-  </si>
-  <si>
-    <t>Avenida Piraporinha, 680</t>
   </si>
   <si>
     <t>Assaí Cidade Tiradentes</t>
@@ -2418,8 +2412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:H302" totalsRowShown="0">
-  <autoFilter ref="A1:H302"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:H301" totalsRowShown="0">
+  <autoFilter ref="A1:H301"/>
   <tableColumns count="8">
     <tableColumn id="1" name="value" dataDxfId="0"/>
     <tableColumn id="2" name="Endereço" dataDxfId="0"/>
@@ -2719,7 +2713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3605,46 +3599,48 @@
         <v>122</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E35" s="2">
-        <v>-23.689236</v>
+        <v>-23.57798</v>
       </c>
       <c r="F35" s="2">
-        <v>-46.573396</v>
+        <v>-46.41465</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D36" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E36" s="2">
-        <v>-23.57798</v>
+        <v>-23.601629</v>
       </c>
       <c r="F36" s="2">
-        <v>-46.41465</v>
+        <v>-46.9118</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3655,22 +3651,22 @@
         <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E37" s="2">
-        <v>-23.601629</v>
+        <v>-23.647096</v>
       </c>
       <c r="F37" s="2">
-        <v>-46.9118</v>
+        <v>-46.727638</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3681,22 +3677,22 @@
         <v>129</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E38" s="2">
-        <v>-23.647096</v>
+        <v>-23.5225</v>
       </c>
       <c r="F38" s="2">
-        <v>-46.727638</v>
+        <v>-46.60177</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3707,22 +3703,22 @@
         <v>131</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E39" s="2">
-        <v>-23.5225</v>
+        <v>-23.553986</v>
       </c>
       <c r="F39" s="2">
-        <v>-46.60177</v>
+        <v>-46.600447</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3733,22 +3729,22 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E40" s="2">
-        <v>-23.553986</v>
+        <v>-23.206373</v>
       </c>
       <c r="F40" s="2">
-        <v>-46.600447</v>
+        <v>-45.905085</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3759,45 +3755,43 @@
         <v>135</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2">
-        <v>-23.206373</v>
+        <v>-22.9293625</v>
       </c>
       <c r="F41" s="2">
-        <v>-45.905085</v>
+        <v>-43.2414068</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="2">
+        <v>-23.4762179</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-46.5297787</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="2">
-        <v>-22.9293625</v>
-      </c>
-      <c r="F42" s="2">
-        <v>-43.2414068</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="H42" s="1"/>
     </row>
@@ -3809,88 +3803,90 @@
         <v>140</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="E43" s="2">
-        <v>-23.4762179</v>
+        <v>-9.983582</v>
       </c>
       <c r="F43" s="2">
-        <v>-46.5297787</v>
+        <v>-67.847235</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E44" s="2">
-        <v>-9.983582</v>
+        <v>-9.750491999999999</v>
       </c>
       <c r="F44" s="2">
-        <v>-67.847235</v>
+        <v>-36.629773</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E45" s="2">
-        <v>-9.750491999999999</v>
+        <v>-9.612522999999999</v>
       </c>
       <c r="F45" s="2">
-        <v>-36.629773</v>
+        <v>-35.738874</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H45" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E46" s="2">
-        <v>-9.612522999999999</v>
+        <v>-9.645636</v>
       </c>
       <c r="F46" s="2">
-        <v>-35.738874</v>
+        <v>-35.714998</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>12</v>
@@ -3907,23 +3903,21 @@
         <v>154</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E47" s="2">
-        <v>-9.645636</v>
+        <v>-9.613320999999999</v>
       </c>
       <c r="F47" s="2">
-        <v>-35.714998</v>
+        <v>-35.718555</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -3933,19 +3927,19 @@
         <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E48" s="2">
-        <v>-9.613320999999999</v>
+        <v>-9.570546</v>
       </c>
       <c r="F48" s="2">
-        <v>-35.718555</v>
+        <v>-35.774394</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -3957,19 +3951,19 @@
         <v>158</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="E49" s="2">
-        <v>-9.570546</v>
+        <v>0.0058599</v>
       </c>
       <c r="F49" s="2">
-        <v>-35.774394</v>
+        <v>-51.0682424</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H49" s="1"/>
     </row>
@@ -3981,19 +3975,19 @@
         <v>160</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E50" s="2">
-        <v>0.0058599</v>
+        <v>-3.039617</v>
       </c>
       <c r="F50" s="2">
-        <v>-51.0682424</v>
+        <v>-59.941656</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H50" s="1"/>
     </row>
@@ -4011,13 +4005,13 @@
         <v>17</v>
       </c>
       <c r="E51" s="2">
-        <v>-3.039617</v>
+        <v>-3.084143</v>
       </c>
       <c r="F51" s="2">
-        <v>-59.941656</v>
+        <v>-60.000062</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H51" s="1"/>
     </row>
@@ -4035,13 +4029,13 @@
         <v>17</v>
       </c>
       <c r="E52" s="2">
-        <v>-3.084143</v>
+        <v>-3.053625</v>
       </c>
       <c r="F52" s="2">
-        <v>-60.000062</v>
+        <v>-60.025065</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H52" s="1"/>
     </row>
@@ -4053,91 +4047,91 @@
         <v>166</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E53" s="2">
-        <v>-3.053625</v>
+        <v>-12.142296</v>
       </c>
       <c r="F53" s="2">
-        <v>-60.025065</v>
+        <v>-44.9824</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="2">
-        <v>-12.142296</v>
+        <v>-12.705699</v>
       </c>
       <c r="F54" s="2">
-        <v>-44.9824</v>
+        <v>-38.31516</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E55" s="2">
-        <v>-12.705699</v>
+        <v>-12.234677</v>
       </c>
       <c r="F55" s="2">
-        <v>-38.31516</v>
+        <v>-38.975922</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="2">
-        <v>-12.234677</v>
+        <v>-12.231818</v>
       </c>
       <c r="F56" s="2">
-        <v>-38.975922</v>
+        <v>-38.9584</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H56" s="1"/>
     </row>
@@ -4149,187 +4143,187 @@
         <v>177</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E57" s="2">
-        <v>-12.231818</v>
+        <v>-14.198669</v>
       </c>
       <c r="F57" s="2">
-        <v>-38.9584</v>
+        <v>-42.75258</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="2">
-        <v>-14.198669</v>
+        <v>-14.853193</v>
       </c>
       <c r="F58" s="2">
-        <v>-42.75258</v>
+        <v>-39.0246</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E59" s="2">
-        <v>-14.853193</v>
+        <v>-15.2560284</v>
       </c>
       <c r="F59" s="2">
-        <v>-39.0246</v>
+        <v>-40.2559655</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="2">
-        <v>-15.2560284</v>
+        <v>-13.849194</v>
       </c>
       <c r="F60" s="2">
-        <v>-40.2559655</v>
+        <v>-40.072725</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E61" s="2">
-        <v>-13.849194</v>
+        <v>-9.425768</v>
       </c>
       <c r="F61" s="2">
-        <v>-40.072725</v>
+        <v>-40.506612</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E62" s="2">
-        <v>-9.425768</v>
+        <v>-12.898943</v>
       </c>
       <c r="F62" s="2">
-        <v>-40.506612</v>
+        <v>-38.332027</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="2">
-        <v>-12.898943</v>
+        <v>-9.399732</v>
       </c>
       <c r="F63" s="2">
-        <v>-38.332027</v>
+        <v>-38.240325</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E64" s="2">
-        <v>-9.399732</v>
+        <v>-12.985483</v>
       </c>
       <c r="F64" s="2">
-        <v>-38.240325</v>
+        <v>-38.515585</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H64" s="1"/>
     </row>
@@ -4347,22 +4341,24 @@
         <v>21</v>
       </c>
       <c r="E65" s="2">
-        <v>-12.985483</v>
+        <v>-12.961527</v>
       </c>
       <c r="F65" s="2">
-        <v>-38.515585</v>
+        <v>-38.46958</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H65" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>20</v>
@@ -4371,17 +4367,15 @@
         <v>21</v>
       </c>
       <c r="E66" s="2">
-        <v>-12.961527</v>
+        <v>-12.940154</v>
       </c>
       <c r="F66" s="2">
-        <v>-38.46958</v>
+        <v>-38.494182</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
@@ -4397,13 +4391,13 @@
         <v>21</v>
       </c>
       <c r="E67" s="2">
-        <v>-12.940154</v>
+        <v>-12.91541</v>
       </c>
       <c r="F67" s="2">
-        <v>-38.494182</v>
+        <v>-38.443337</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H67" s="1"/>
     </row>
@@ -4421,13 +4415,13 @@
         <v>21</v>
       </c>
       <c r="E68" s="2">
-        <v>-12.91541</v>
+        <v>-12.845124</v>
       </c>
       <c r="F68" s="2">
-        <v>-38.443337</v>
+        <v>-38.470138</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H68" s="1"/>
     </row>
@@ -4445,15 +4439,17 @@
         <v>21</v>
       </c>
       <c r="E69" s="2">
-        <v>-12.845124</v>
+        <v>-12.970436</v>
       </c>
       <c r="F69" s="2">
-        <v>-38.470138</v>
+        <v>-38.481146</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H69" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
@@ -4469,17 +4465,15 @@
         <v>21</v>
       </c>
       <c r="E70" s="2">
-        <v>-12.970436</v>
+        <v>-12.914583</v>
       </c>
       <c r="F70" s="2">
-        <v>-38.481146</v>
+        <v>-38.369213</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
@@ -4495,15 +4489,17 @@
         <v>21</v>
       </c>
       <c r="E71" s="2">
-        <v>-12.914583</v>
+        <v>-12.9991</v>
       </c>
       <c r="F71" s="2">
-        <v>-38.369213</v>
+        <v>-38.490213</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H71" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
@@ -4513,141 +4509,139 @@
         <v>215</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E72" s="2">
-        <v>-12.9991</v>
+        <v>-10.465069</v>
       </c>
       <c r="F72" s="2">
-        <v>-38.490213</v>
+        <v>-40.175427</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E73" s="2">
-        <v>-10.465069</v>
+        <v>-21.974404</v>
       </c>
       <c r="F73" s="2">
-        <v>-40.175427</v>
+        <v>-55.662372</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E74" s="2">
-        <v>-21.974404</v>
+        <v>-17.537501</v>
       </c>
       <c r="F74" s="2">
-        <v>-55.662372</v>
+        <v>-39.750037</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E75" s="2">
-        <v>-17.537501</v>
+        <v>-14.84683</v>
       </c>
       <c r="F75" s="2">
-        <v>-39.750037</v>
+        <v>-40.886703</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E76" s="2">
-        <v>-14.84683</v>
+        <v>-3.740834</v>
       </c>
       <c r="F76" s="2">
-        <v>-40.886703</v>
+        <v>-38.606925</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E77" s="2">
-        <v>-3.740834</v>
+        <v>-3.731521</v>
       </c>
       <c r="F77" s="2">
-        <v>-38.606925</v>
+        <v>-38.541325</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H77" s="1"/>
     </row>
@@ -4665,13 +4659,13 @@
         <v>26</v>
       </c>
       <c r="E78" s="2">
-        <v>-3.731521</v>
+        <v>-3.790988</v>
       </c>
       <c r="F78" s="2">
-        <v>-38.541325</v>
+        <v>-38.507725</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H78" s="1"/>
     </row>
@@ -4689,15 +4683,17 @@
         <v>26</v>
       </c>
       <c r="E79" s="2">
-        <v>-3.790988</v>
+        <v>-3.768879</v>
       </c>
       <c r="F79" s="2">
-        <v>-38.507725</v>
+        <v>-38.642856</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H79" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
@@ -4713,24 +4709,24 @@
         <v>26</v>
       </c>
       <c r="E80" s="2">
-        <v>-3.768879</v>
+        <v>-3.728226</v>
       </c>
       <c r="F80" s="2">
-        <v>-38.642856</v>
+        <v>-38.57095</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>25</v>
@@ -4765,10 +4761,10 @@
         <v>26</v>
       </c>
       <c r="E82" s="2">
-        <v>-3.728226</v>
+        <v>-3.736325</v>
       </c>
       <c r="F82" s="2">
-        <v>-38.57095</v>
+        <v>-38.58271</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>12</v>
@@ -4791,17 +4787,15 @@
         <v>26</v>
       </c>
       <c r="E83" s="2">
-        <v>-3.736325</v>
+        <v>-3.778641</v>
       </c>
       <c r="F83" s="2">
-        <v>-38.58271</v>
+        <v>-38.564907</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
@@ -4817,13 +4811,13 @@
         <v>26</v>
       </c>
       <c r="E84" s="2">
-        <v>-3.778641</v>
+        <v>-3.84058</v>
       </c>
       <c r="F84" s="2">
-        <v>-38.564907</v>
+        <v>-38.480795</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H84" s="1"/>
     </row>
@@ -4841,13 +4835,13 @@
         <v>26</v>
       </c>
       <c r="E85" s="2">
-        <v>-3.84058</v>
+        <v>-3.800384</v>
       </c>
       <c r="F85" s="2">
-        <v>-38.480795</v>
+        <v>-38.479505</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H85" s="1"/>
     </row>
@@ -4859,136 +4853,138 @@
         <v>246</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E86" s="2">
-        <v>-3.800384</v>
+        <v>-6.352546</v>
       </c>
       <c r="F86" s="2">
-        <v>-38.479505</v>
+        <v>-39.306754</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E87" s="2">
-        <v>-6.352546</v>
+        <v>-7.22674</v>
       </c>
       <c r="F87" s="2">
-        <v>-39.306754</v>
+        <v>-39.347447</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E88" s="2">
-        <v>-7.22674</v>
+        <v>-3.851611</v>
       </c>
       <c r="F88" s="2">
-        <v>-39.347447</v>
+        <v>-38.588003</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E89" s="2">
-        <v>-3.851611</v>
+        <v>-3.706588</v>
       </c>
       <c r="F89" s="2">
-        <v>-38.588003</v>
+        <v>-40.354971</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="E90" s="2">
-        <v>-3.706588</v>
+        <v>-15.733992</v>
       </c>
       <c r="F90" s="2">
-        <v>-40.354971</v>
+        <v>-47.900487</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H90" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E91" s="2">
-        <v>-15.733992</v>
+        <v>-15.834223</v>
       </c>
       <c r="F91" s="2">
-        <v>-47.900487</v>
+        <v>-47.950509</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>12</v>
@@ -5005,16 +5001,16 @@
         <v>264</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E92" s="2">
-        <v>-15.834223</v>
+        <v>-15.794704</v>
       </c>
       <c r="F92" s="2">
-        <v>-47.950509</v>
+        <v>-47.950328</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>12</v>
@@ -5031,23 +5027,21 @@
         <v>266</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E93" s="2">
-        <v>-15.794704</v>
+        <v>-21.794257</v>
       </c>
       <c r="F93" s="2">
-        <v>-47.950328</v>
+        <v>-55.721283</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
@@ -5057,21 +5051,23 @@
         <v>268</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E94" s="2">
-        <v>-21.794257</v>
+        <v>-15.835678</v>
       </c>
       <c r="F94" s="2">
-        <v>-55.721283</v>
+        <v>-48.048586</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H94" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
@@ -5081,119 +5077,117 @@
         <v>270</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E95" s="2">
-        <v>-15.835678</v>
+        <v>-15.821498</v>
       </c>
       <c r="F95" s="2">
-        <v>-48.048586</v>
+        <v>-48.103147</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E96" s="2">
-        <v>-15.821498</v>
+        <v>-21.758563</v>
       </c>
       <c r="F96" s="2">
-        <v>-48.103147</v>
+        <v>-55.748726</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="E97" s="2">
-        <v>-21.758563</v>
+        <v>-17.721371</v>
       </c>
       <c r="F97" s="2">
-        <v>-55.748726</v>
+        <v>-48.640064</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E98" s="2">
-        <v>-17.721371</v>
+        <v>-16.729536</v>
       </c>
       <c r="F98" s="2">
-        <v>-48.640064</v>
+        <v>-49.290103</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E99" s="2">
-        <v>-16.729536</v>
+        <v>-16.650884</v>
       </c>
       <c r="F99" s="2">
-        <v>-49.290103</v>
+        <v>-49.317726</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H99" s="1"/>
     </row>
@@ -5205,21 +5199,23 @@
         <v>285</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E100" s="2">
-        <v>-16.650884</v>
+        <v>-16.692575</v>
       </c>
       <c r="F100" s="2">
-        <v>-49.317726</v>
+        <v>-49.270224</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H100" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
@@ -5229,23 +5225,21 @@
         <v>287</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E101" s="2">
-        <v>-16.692575</v>
+        <v>-16.71033</v>
       </c>
       <c r="F101" s="2">
-        <v>-49.270224</v>
+        <v>-49.31182</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
@@ -5255,19 +5249,19 @@
         <v>289</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E102" s="2">
-        <v>-16.71033</v>
+        <v>-16.663072</v>
       </c>
       <c r="F102" s="2">
-        <v>-49.31182</v>
+        <v>-49.256211</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H102" s="1"/>
     </row>
@@ -5279,91 +5273,91 @@
         <v>291</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E103" s="2">
-        <v>-16.663072</v>
+        <v>-17.807692</v>
       </c>
       <c r="F103" s="2">
-        <v>-49.256211</v>
+        <v>-50.924531</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E104" s="2">
-        <v>-17.807692</v>
+        <v>-16.079408</v>
       </c>
       <c r="F104" s="2">
-        <v>-50.924531</v>
+        <v>-47.986779</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="E105" s="2">
-        <v>-16.079408</v>
+        <v>-5.488992</v>
       </c>
       <c r="F105" s="2">
-        <v>-47.986779</v>
+        <v>-47.473164</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E106" s="2">
-        <v>-5.488992</v>
+        <v>-21.946501</v>
       </c>
       <c r="F106" s="2">
-        <v>-47.473164</v>
+        <v>-55.861344</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H106" s="1"/>
     </row>
@@ -5381,13 +5375,13 @@
         <v>41</v>
       </c>
       <c r="E107" s="2">
-        <v>-21.946501</v>
+        <v>-2.499676</v>
       </c>
       <c r="F107" s="2">
-        <v>-55.861344</v>
+        <v>-44.229533</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H107" s="1"/>
     </row>
@@ -5399,19 +5393,19 @@
         <v>304</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E108" s="2">
-        <v>-2.499676</v>
+        <v>-15.630102</v>
       </c>
       <c r="F108" s="2">
-        <v>-44.229533</v>
+        <v>-56.0531</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H108" s="1"/>
     </row>
@@ -5429,13 +5423,13 @@
         <v>45</v>
       </c>
       <c r="E109" s="2">
-        <v>-15.630102</v>
+        <v>-15.60819</v>
       </c>
       <c r="F109" s="2">
-        <v>-56.0531</v>
+        <v>-56.078426</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H109" s="1"/>
     </row>
@@ -5447,43 +5441,43 @@
         <v>308</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E110" s="2">
-        <v>-15.60819</v>
+        <v>-16.466385</v>
       </c>
       <c r="F110" s="2">
-        <v>-56.078426</v>
+        <v>-54.643784</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E111" s="2">
-        <v>-16.466385</v>
+        <v>-16.449301</v>
       </c>
       <c r="F111" s="2">
-        <v>-54.643784</v>
+        <v>-54.6222</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H111" s="1"/>
     </row>
@@ -5495,67 +5489,67 @@
         <v>313</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E112" s="2">
-        <v>-16.449301</v>
+        <v>-11.852774</v>
       </c>
       <c r="F112" s="2">
-        <v>-54.6222</v>
+        <v>-55.496359</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E113" s="2">
-        <v>-11.852774</v>
+        <v>-15.639299</v>
       </c>
       <c r="F113" s="2">
-        <v>-55.496359</v>
+        <v>-56.102133</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E114" s="2">
-        <v>-15.639299</v>
+        <v>-20.489879</v>
       </c>
       <c r="F114" s="2">
-        <v>-56.102133</v>
+        <v>-54.621</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H114" s="1"/>
     </row>
@@ -5573,13 +5567,13 @@
         <v>49</v>
       </c>
       <c r="E115" s="2">
-        <v>-20.489879</v>
+        <v>-20.457593</v>
       </c>
       <c r="F115" s="2">
-        <v>-54.621</v>
+        <v>-54.665889</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H115" s="1"/>
     </row>
@@ -5597,13 +5591,13 @@
         <v>49</v>
       </c>
       <c r="E116" s="2">
-        <v>-20.457593</v>
+        <v>-20.431939</v>
       </c>
       <c r="F116" s="2">
-        <v>-54.665889</v>
+        <v>-54.5924</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H116" s="1"/>
     </row>
@@ -5615,45 +5609,47 @@
         <v>325</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>48</v>
+        <v>326</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E117" s="2">
-        <v>-20.431939</v>
+        <v>-22.249694</v>
       </c>
       <c r="F117" s="2">
-        <v>-54.5924</v>
+        <v>-54.783465</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>328</v>
+        <v>54</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E118" s="2">
-        <v>-22.249694</v>
+        <v>-19.97429</v>
       </c>
       <c r="F118" s="2">
-        <v>-54.783465</v>
+        <v>-43.947966</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H118" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
@@ -5663,167 +5659,165 @@
         <v>330</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>54</v>
+        <v>331</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E119" s="2">
-        <v>-19.97429</v>
+        <v>-19.957615</v>
       </c>
       <c r="F119" s="2">
-        <v>-43.947966</v>
+        <v>-44.1727541</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E120" s="2">
-        <v>-19.957615</v>
+        <v>-19.936917</v>
       </c>
       <c r="F120" s="2">
-        <v>-44.1727541</v>
+        <v>-44.059467</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E121" s="2">
-        <v>-19.936917</v>
+        <v>-19.485133</v>
       </c>
       <c r="F121" s="2">
-        <v>-44.059467</v>
+        <v>-42.556392</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H121" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E122" s="2">
-        <v>-19.485133</v>
+        <v>-19.466272</v>
       </c>
       <c r="F122" s="2">
-        <v>-42.556392</v>
+        <v>-44.244</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E123" s="2">
-        <v>-19.466272</v>
+        <v>-18.930362</v>
       </c>
       <c r="F123" s="2">
-        <v>-44.244</v>
+        <v>-48.284806</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E124" s="2">
-        <v>-18.930362</v>
+        <v>-25.39095</v>
       </c>
       <c r="F124" s="2">
-        <v>-48.284806</v>
+        <v>-49.209487</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E125" s="2">
-        <v>-25.39095</v>
+        <v>-25.514484</v>
       </c>
       <c r="F125" s="2">
-        <v>-49.209487</v>
+        <v>-49.290801</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H125" s="1"/>
     </row>
@@ -5835,21 +5829,23 @@
         <v>350</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E126" s="2">
-        <v>-25.514484</v>
+        <v>-25.447629</v>
       </c>
       <c r="F126" s="2">
-        <v>-49.290801</v>
+        <v>-49.289626</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H126" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
@@ -5859,23 +5855,21 @@
         <v>352</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E127" s="2">
-        <v>-25.447629</v>
+        <v>-25.454856</v>
       </c>
       <c r="F127" s="2">
-        <v>-49.289626</v>
+        <v>-49.361585</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
@@ -5885,19 +5879,19 @@
         <v>354</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E128" s="2">
-        <v>-25.454856</v>
+        <v>-25.453052</v>
       </c>
       <c r="F128" s="2">
-        <v>-49.361585</v>
+        <v>-49.270486</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H128" s="1"/>
     </row>
@@ -5909,43 +5903,43 @@
         <v>356</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E129" s="2">
-        <v>-25.453052</v>
+        <v>-23.292975</v>
       </c>
       <c r="F129" s="2">
-        <v>-49.270486</v>
+        <v>-51.212794</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E130" s="2">
-        <v>-23.292975</v>
+        <v>-23.25914</v>
       </c>
       <c r="F130" s="2">
-        <v>-51.212794</v>
+        <v>-51.160062</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H130" s="1"/>
     </row>
@@ -5957,43 +5951,43 @@
         <v>361</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E131" s="2">
-        <v>-23.25914</v>
+        <v>-23.424105</v>
       </c>
       <c r="F131" s="2">
-        <v>-51.160062</v>
+        <v>-51.900104</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E132" s="2">
-        <v>-23.424105</v>
+        <v>-23.418386</v>
       </c>
       <c r="F132" s="2">
-        <v>-51.900104</v>
+        <v>-51.970497</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H132" s="1"/>
     </row>
@@ -6005,58 +5999,60 @@
         <v>366</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>65</v>
+        <v>368</v>
       </c>
       <c r="E133" s="2">
-        <v>-23.418386</v>
+        <v>-7.088823</v>
       </c>
       <c r="F133" s="2">
-        <v>-51.970497</v>
+        <v>-34.849024</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="E134" s="2">
-        <v>-7.088823</v>
+        <v>-7.237757</v>
       </c>
       <c r="F134" s="2">
-        <v>-34.849024</v>
+        <v>-35.88891</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H134" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="D135" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E135" s="2">
         <v>-7.237757</v>
@@ -6068,34 +6064,32 @@
         <v>12</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="D136" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E136" s="2">
-        <v>-7.237757</v>
+        <v>-7.234129</v>
       </c>
       <c r="F136" s="2">
-        <v>-35.88891</v>
+        <v>-35.867355</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
@@ -6105,47 +6099,47 @@
         <v>375</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E137" s="2">
-        <v>-7.234129</v>
+        <v>-7.11933</v>
       </c>
       <c r="F137" s="2">
-        <v>-35.867355</v>
+        <v>-34.85863</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H137" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="D138" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E138" s="2">
-        <v>-7.11933</v>
+        <v>-7.172674</v>
       </c>
       <c r="F138" s="2">
-        <v>-34.85863</v>
+        <v>-34.871158</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
@@ -6155,67 +6149,67 @@
         <v>380</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="E139" s="2">
-        <v>-7.172674</v>
+        <v>-1.366274</v>
       </c>
       <c r="F139" s="2">
-        <v>-34.871158</v>
+        <v>-48.368671</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="E140" s="2">
-        <v>-1.366274</v>
+        <v>-1.463966</v>
       </c>
       <c r="F140" s="2">
-        <v>-48.368671</v>
+        <v>-48.49758</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="D141" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E141" s="2">
-        <v>-1.463966</v>
+        <v>-1.359051</v>
       </c>
       <c r="F141" s="2">
-        <v>-48.49758</v>
+        <v>-48.429256</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H141" s="1"/>
     </row>
@@ -6227,19 +6221,19 @@
         <v>389</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E142" s="2">
-        <v>-1.359051</v>
+        <v>-2.02793</v>
       </c>
       <c r="F142" s="2">
-        <v>-48.429256</v>
+        <v>-50.324609</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H142" s="1"/>
     </row>
@@ -6251,163 +6245,163 @@
         <v>391</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E143" s="2">
-        <v>-2.02793</v>
+        <v>-1.295135</v>
       </c>
       <c r="F143" s="2">
-        <v>-50.324609</v>
+        <v>-47.894219</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E144" s="2">
-        <v>-1.295135</v>
+        <v>-21.805113</v>
       </c>
       <c r="F144" s="2">
-        <v>-47.894219</v>
+        <v>-55.707521</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E145" s="2">
-        <v>-21.805113</v>
+        <v>-21.811683</v>
       </c>
       <c r="F145" s="2">
-        <v>-55.707521</v>
+        <v>-55.69931</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>384</v>
+        <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>-21.811683</v>
+        <v>-8.291225000000001</v>
       </c>
       <c r="F146" s="2">
-        <v>-55.69931</v>
+        <v>-35.0255648</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H146" s="1"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>-8.291225000000001</v>
+        <v>-8.019672999999999</v>
       </c>
       <c r="F147" s="2">
-        <v>-35.0255648</v>
+        <v>-34.971455</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>-8.019672999999999</v>
+        <v>-8.283161</v>
       </c>
       <c r="F148" s="2">
-        <v>-34.971455</v>
+        <v>-35.967333</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>-8.283161</v>
+        <v>-21.84819</v>
       </c>
       <c r="F149" s="2">
-        <v>-35.967333</v>
+        <v>-55.724879</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H149" s="1"/>
     </row>
@@ -6419,115 +6413,115 @@
         <v>411</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>-21.84819</v>
+        <v>-8.875228</v>
       </c>
       <c r="F150" s="2">
-        <v>-55.724879</v>
+        <v>-36.462714</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>-8.875228</v>
+        <v>-8.170934000000001</v>
       </c>
       <c r="F151" s="2">
-        <v>-36.462714</v>
+        <v>-34.91846</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>-8.170934000000001</v>
+        <v>-7.918127</v>
       </c>
       <c r="F152" s="2">
-        <v>-34.91846</v>
+        <v>-34.89439</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H152" s="1"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>-7.918127</v>
+        <v>-9.380454</v>
       </c>
       <c r="F153" s="2">
-        <v>-34.89439</v>
+        <v>-40.515493</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H153" s="1"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>423</v>
+        <v>72</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E154" s="2">
-        <v>-9.380454</v>
+        <v>-8.077228</v>
       </c>
       <c r="F154" s="2">
-        <v>-40.515493</v>
+        <v>-34.93792</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H154" s="1"/>
     </row>
@@ -6545,15 +6539,17 @@
         <v>69</v>
       </c>
       <c r="E155" s="2">
-        <v>-8.077228</v>
+        <v>-8.104634000000001</v>
       </c>
       <c r="F155" s="2">
-        <v>-34.93792</v>
+        <v>-34.889698</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H155" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
@@ -6569,17 +6565,15 @@
         <v>69</v>
       </c>
       <c r="E156" s="2">
-        <v>-8.104634000000001</v>
+        <v>-8.100923999999999</v>
       </c>
       <c r="F156" s="2">
-        <v>-34.889698</v>
+        <v>-34.911144</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H156" s="1"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
@@ -6589,115 +6583,115 @@
         <v>429</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E157" s="2">
-        <v>-8.100923999999999</v>
+        <v>-7.984662</v>
       </c>
       <c r="F157" s="2">
-        <v>-34.911144</v>
+        <v>-38.301118</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H157" s="1"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>69</v>
+        <v>434</v>
       </c>
       <c r="E158" s="2">
-        <v>-7.984662</v>
+        <v>-21.810514</v>
       </c>
       <c r="F158" s="2">
-        <v>-38.301118</v>
+        <v>-55.733643</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H158" s="1"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="E159" s="2">
-        <v>-21.810514</v>
+        <v>-22.002862</v>
       </c>
       <c r="F159" s="2">
-        <v>-55.733643</v>
+        <v>-55.889963</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H159" s="1"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E160" s="2">
-        <v>-22.002862</v>
+        <v>-5.060075</v>
       </c>
       <c r="F160" s="2">
-        <v>-55.889963</v>
+        <v>-42.80603</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="D161" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E161" s="2">
-        <v>-5.060075</v>
+        <v>-5.10919</v>
       </c>
       <c r="F161" s="2">
-        <v>-42.80603</v>
+        <v>-42.772868</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H161" s="1"/>
     </row>
@@ -6706,46 +6700,46 @@
         <v>443</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>444</v>
+        <v>354</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E162" s="2">
-        <v>-5.10919</v>
+        <v>-5.078338</v>
       </c>
       <c r="F162" s="2">
-        <v>-42.772868</v>
+        <v>-42.77427</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H162" s="1"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="C163" s="1" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>436</v>
+        <v>76</v>
       </c>
       <c r="E163" s="2">
-        <v>-5.078338</v>
+        <v>-5.866983</v>
       </c>
       <c r="F163" s="2">
-        <v>-42.77427</v>
+        <v>-35.21748</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H163" s="1"/>
     </row>
@@ -6763,13 +6757,13 @@
         <v>76</v>
       </c>
       <c r="E164" s="2">
-        <v>-5.866983</v>
+        <v>-5.771151</v>
       </c>
       <c r="F164" s="2">
-        <v>-35.21748</v>
+        <v>-35.2667</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H164" s="1"/>
     </row>
@@ -6781,40 +6775,42 @@
         <v>449</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E165" s="2">
-        <v>-5.771151</v>
+        <v>-5.883533</v>
       </c>
       <c r="F165" s="2">
-        <v>-35.2667</v>
+        <v>-35.212851</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H165" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E166" s="2">
-        <v>-5.883533</v>
+        <v>-22.858827</v>
       </c>
       <c r="F166" s="2">
-        <v>-35.212851</v>
+        <v>-42.328644</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>12</v>
@@ -6825,75 +6821,73 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E167" s="2">
-        <v>-22.858827</v>
+        <v>-22.890185</v>
       </c>
       <c r="F167" s="2">
-        <v>-42.328644</v>
+        <v>-42.04847</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H167" s="1"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E168" s="2">
-        <v>-22.890185</v>
+        <v>-21.879355</v>
       </c>
       <c r="F168" s="2">
-        <v>-42.04847</v>
+        <v>-55.648384</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H168" s="1"/>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E169" s="2">
-        <v>-21.879355</v>
+        <v>-22.776542</v>
       </c>
       <c r="F169" s="2">
-        <v>-55.648384</v>
+        <v>-43.307696</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H169" s="1"/>
     </row>
@@ -6905,115 +6899,115 @@
         <v>463</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E170" s="2">
-        <v>-22.776542</v>
+        <v>-22.940776</v>
       </c>
       <c r="F170" s="2">
-        <v>-43.307696</v>
+        <v>-43.3431</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H170" s="1"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E171" s="2">
-        <v>-22.940776</v>
+        <v>-22.345509</v>
       </c>
       <c r="F171" s="2">
-        <v>-43.3431</v>
+        <v>-41.794318</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H171" s="1"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E172" s="2">
-        <v>-22.345509</v>
+        <v>-21.831933</v>
       </c>
       <c r="F172" s="2">
-        <v>-41.794318</v>
+        <v>-55.736513</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H172" s="1"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E173" s="2">
-        <v>-21.831933</v>
+        <v>-22.804375</v>
       </c>
       <c r="F173" s="2">
-        <v>-55.736513</v>
+        <v>-43.4183</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H173" s="1"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>475</v>
+        <v>86</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E174" s="2">
-        <v>-22.804375</v>
+        <v>-22.877645</v>
       </c>
       <c r="F174" s="2">
-        <v>-43.4183</v>
+        <v>-43.108843</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H174" s="1"/>
     </row>
@@ -7025,19 +7019,19 @@
         <v>477</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E175" s="2">
-        <v>-22.877645</v>
+        <v>-22.762351</v>
       </c>
       <c r="F175" s="2">
-        <v>-43.108843</v>
+        <v>-43.4454</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H175" s="1"/>
     </row>
@@ -7049,43 +7043,43 @@
         <v>479</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>89</v>
+        <v>480</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E176" s="2">
-        <v>-22.762351</v>
+        <v>-22.468502</v>
       </c>
       <c r="F176" s="2">
-        <v>-43.4454</v>
+        <v>-43.148609</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H176" s="1"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>482</v>
+        <v>92</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E177" s="2">
-        <v>-22.468502</v>
+        <v>-22.960839</v>
       </c>
       <c r="F177" s="2">
-        <v>-43.148609</v>
+        <v>-43.357242</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H177" s="1"/>
     </row>
@@ -7103,13 +7097,13 @@
         <v>83</v>
       </c>
       <c r="E178" s="2">
-        <v>-22.960839</v>
+        <v>-22.879658</v>
       </c>
       <c r="F178" s="2">
-        <v>-43.357242</v>
+        <v>-43.4655</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H178" s="1"/>
     </row>
@@ -7127,13 +7121,13 @@
         <v>83</v>
       </c>
       <c r="E179" s="2">
-        <v>-22.879658</v>
+        <v>-23.001891</v>
       </c>
       <c r="F179" s="2">
-        <v>-43.4655</v>
+        <v>-43.3254</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H179" s="1"/>
     </row>
@@ -7151,13 +7145,13 @@
         <v>83</v>
       </c>
       <c r="E180" s="2">
-        <v>-23.001891</v>
+        <v>-22.881326</v>
       </c>
       <c r="F180" s="2">
-        <v>-43.3254</v>
+        <v>-43.342254</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H180" s="1"/>
     </row>
@@ -7175,15 +7169,17 @@
         <v>83</v>
       </c>
       <c r="E181" s="2">
-        <v>-22.881326</v>
+        <v>-22.849869</v>
       </c>
       <c r="F181" s="2">
-        <v>-43.342254</v>
+        <v>-43.3114</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H181" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
@@ -7199,17 +7195,15 @@
         <v>83</v>
       </c>
       <c r="E182" s="2">
-        <v>-22.849869</v>
+        <v>-22.827286</v>
       </c>
       <c r="F182" s="2">
-        <v>-43.3114</v>
+        <v>-43.338618</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H182" s="1"/>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
@@ -7225,13 +7219,13 @@
         <v>83</v>
       </c>
       <c r="E183" s="2">
-        <v>-22.827286</v>
+        <v>-22.906593</v>
       </c>
       <c r="F183" s="2">
-        <v>-43.338618</v>
+        <v>-43.564551</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H183" s="1"/>
     </row>
@@ -7249,15 +7243,17 @@
         <v>83</v>
       </c>
       <c r="E184" s="2">
-        <v>-22.906593</v>
+        <v>-22.818079</v>
       </c>
       <c r="F184" s="2">
-        <v>-43.564551</v>
+        <v>-43.287855</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H184" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
@@ -7273,17 +7269,15 @@
         <v>83</v>
       </c>
       <c r="E185" s="2">
-        <v>-22.818079</v>
+        <v>-22.803149</v>
       </c>
       <c r="F185" s="2">
-        <v>-43.287855</v>
+        <v>-43.202801</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H185" s="1"/>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
@@ -7299,13 +7293,13 @@
         <v>83</v>
       </c>
       <c r="E186" s="2">
-        <v>-22.803149</v>
+        <v>-22.904494</v>
       </c>
       <c r="F186" s="2">
-        <v>-43.202801</v>
+        <v>-43.2862</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H186" s="1"/>
     </row>
@@ -7323,13 +7317,13 @@
         <v>83</v>
       </c>
       <c r="E187" s="2">
-        <v>-22.904494</v>
+        <v>-22.86431</v>
       </c>
       <c r="F187" s="2">
-        <v>-43.2862</v>
+        <v>-43.548962</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H187" s="1"/>
     </row>
@@ -7347,13 +7341,13 @@
         <v>83</v>
       </c>
       <c r="E188" s="2">
-        <v>-22.86431</v>
+        <v>-22.883813</v>
       </c>
       <c r="F188" s="2">
-        <v>-43.548962</v>
+        <v>-43.291208</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H188" s="1"/>
     </row>
@@ -7371,13 +7365,13 @@
         <v>83</v>
       </c>
       <c r="E189" s="2">
-        <v>-22.883813</v>
+        <v>-22.885381</v>
       </c>
       <c r="F189" s="2">
-        <v>-43.291208</v>
+        <v>-43.226628</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H189" s="1"/>
     </row>
@@ -7395,13 +7389,13 @@
         <v>83</v>
       </c>
       <c r="E190" s="2">
-        <v>-22.885381</v>
+        <v>-22.891011</v>
       </c>
       <c r="F190" s="2">
-        <v>-43.226628</v>
+        <v>-43.676538</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H190" s="1"/>
     </row>
@@ -7413,19 +7407,19 @@
         <v>510</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E191" s="2">
-        <v>-22.891011</v>
+        <v>-22.820066</v>
       </c>
       <c r="F191" s="2">
-        <v>-43.676538</v>
+        <v>-43.0041</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H191" s="1"/>
     </row>
@@ -7443,13 +7437,13 @@
         <v>83</v>
       </c>
       <c r="E192" s="2">
-        <v>-22.820066</v>
+        <v>-22.845075</v>
       </c>
       <c r="F192" s="2">
-        <v>-43.0041</v>
+        <v>-43.0931</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H192" s="1"/>
     </row>
@@ -7467,15 +7461,17 @@
         <v>83</v>
       </c>
       <c r="E193" s="2">
-        <v>-22.845075</v>
+        <v>-22.826275</v>
       </c>
       <c r="F193" s="2">
-        <v>-43.0931</v>
+        <v>-43.052213</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H193" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
@@ -7491,17 +7487,15 @@
         <v>83</v>
       </c>
       <c r="E194" s="2">
-        <v>-22.826275</v>
+        <v>-22.8545885</v>
       </c>
       <c r="F194" s="2">
-        <v>-43.052213</v>
+        <v>-43.0209699</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H194" s="1"/>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
@@ -7511,67 +7505,67 @@
         <v>518</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>105</v>
+        <v>519</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E195" s="2">
-        <v>-22.8545885</v>
+        <v>-22.798897</v>
       </c>
       <c r="F195" s="2">
-        <v>-43.0209699</v>
+        <v>-43.357463</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H195" s="1"/>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>83</v>
+        <v>523</v>
       </c>
       <c r="E196" s="2">
-        <v>-22.798897</v>
+        <v>-21.794682</v>
       </c>
       <c r="F196" s="2">
-        <v>-43.357463</v>
+        <v>-55.725403</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H196" s="1"/>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="E197" s="2">
-        <v>-21.794682</v>
+        <v>-8.731204999999999</v>
       </c>
       <c r="F197" s="2">
-        <v>-55.725403</v>
+        <v>-63.907827</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H197" s="1"/>
     </row>
@@ -7583,71 +7577,71 @@
         <v>527</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E198" s="2">
-        <v>-8.731204999999999</v>
+        <v>2.800786</v>
       </c>
       <c r="F198" s="2">
-        <v>-63.907827</v>
+        <v>-60.698632</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H198" s="1"/>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E199" s="2">
-        <v>2.800786</v>
+        <v>-10.948019</v>
       </c>
       <c r="F199" s="2">
-        <v>-60.698632</v>
+        <v>-37.071057</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H199" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="E200" s="2">
-        <v>-10.948019</v>
+        <v>-10.907129</v>
       </c>
       <c r="F200" s="2">
-        <v>-37.071057</v>
+        <v>-37.087719</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H200" s="1"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="1" t="s">
@@ -7657,19 +7651,19 @@
         <v>537</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E201" s="2">
-        <v>-10.907129</v>
+        <v>-21.798083</v>
       </c>
       <c r="F201" s="2">
-        <v>-37.087719</v>
+        <v>-55.718536</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H201" s="1"/>
     </row>
@@ -7681,169 +7675,169 @@
         <v>539</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E202" s="2">
-        <v>-21.798083</v>
+        <v>-10.67701</v>
       </c>
       <c r="F202" s="2">
-        <v>-55.718536</v>
+        <v>-37.442282</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H202" s="1"/>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E203" s="2">
-        <v>-10.67701</v>
+        <v>-10.846581</v>
       </c>
       <c r="F203" s="2">
-        <v>-37.442282</v>
+        <v>-37.086934</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H203" s="1"/>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>535</v>
+        <v>109</v>
       </c>
       <c r="E204" s="2">
-        <v>-10.846581</v>
+        <v>-21.78999</v>
       </c>
       <c r="F204" s="2">
-        <v>-37.086934</v>
+        <v>-48.17672</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H204" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E205" s="2">
-        <v>-21.78999</v>
+        <v>-21.205883</v>
       </c>
       <c r="F205" s="2">
-        <v>-48.17672</v>
+        <v>-50.446724</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H205" s="1"/>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E206" s="2">
-        <v>-21.205883</v>
+        <v>-22.31701</v>
       </c>
       <c r="F206" s="2">
-        <v>-50.446724</v>
+        <v>-49.0688</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H206" s="1"/>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E207" s="2">
-        <v>-22.31701</v>
+        <v>-22.944982</v>
       </c>
       <c r="F207" s="2">
-        <v>-49.0688</v>
+        <v>-47.1099</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H207" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="D208" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E208" s="2">
-        <v>-22.944982</v>
+        <v>-22.903911</v>
       </c>
       <c r="F208" s="2">
-        <v>-47.1099</v>
+        <v>-47.06559</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H208" s="1"/>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="1" t="s">
@@ -7853,21 +7847,23 @@
         <v>559</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E209" s="2">
-        <v>-22.903911</v>
+        <v>-22.926235</v>
       </c>
       <c r="F209" s="2">
-        <v>-47.06559</v>
+        <v>-47.039738</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H209" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="1" t="s">
@@ -7877,167 +7873,167 @@
         <v>561</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E210" s="2">
-        <v>-22.926235</v>
+        <v>-23.624733</v>
       </c>
       <c r="F210" s="2">
-        <v>-47.039738</v>
+        <v>-45.4207</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H210" s="1"/>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E211" s="2">
-        <v>-23.624733</v>
+        <v>-23.521825</v>
       </c>
       <c r="F211" s="2">
-        <v>-45.4207</v>
+        <v>-46.828639</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H211" s="1"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E212" s="2">
-        <v>-23.521825</v>
+        <v>-23.600256</v>
       </c>
       <c r="F212" s="2">
-        <v>-46.828639</v>
+        <v>-46.8583</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H212" s="1"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E213" s="2">
-        <v>-23.600256</v>
+        <v>-23.689322</v>
       </c>
       <c r="F213" s="2">
-        <v>-46.8583</v>
+        <v>-46.591006</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H213" s="1"/>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E214" s="2">
-        <v>-23.689322</v>
+        <v>-23.651558</v>
       </c>
       <c r="F214" s="2">
-        <v>-46.591006</v>
+        <v>-46.850696</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H214" s="1"/>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E215" s="2">
-        <v>-23.651558</v>
+        <v>-23.3344</v>
       </c>
       <c r="F215" s="2">
-        <v>-46.850696</v>
+        <v>-46.73678</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H215" s="1"/>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>579</v>
+        <v>112</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E216" s="2">
-        <v>-23.3344</v>
+        <v>-23.454849</v>
       </c>
       <c r="F216" s="2">
-        <v>-46.73678</v>
+        <v>-46.534391</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H216" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="1" t="s">
@@ -8053,17 +8049,15 @@
         <v>109</v>
       </c>
       <c r="E217" s="2">
-        <v>-23.454849</v>
+        <v>-23.427285</v>
       </c>
       <c r="F217" s="2">
-        <v>-46.534391</v>
+        <v>-46.497776</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H217" s="1"/>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="1" t="s">
@@ -8073,165 +8067,165 @@
         <v>583</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>112</v>
+        <v>584</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E218" s="2">
-        <v>-23.427285</v>
+        <v>-22.863508</v>
       </c>
       <c r="F218" s="2">
-        <v>-46.497776</v>
+        <v>-47.210991</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H218" s="1"/>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E219" s="2">
-        <v>-22.863508</v>
+        <v>-21.81373</v>
       </c>
       <c r="F219" s="2">
-        <v>-47.210991</v>
+        <v>-55.710979</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H219" s="1"/>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E220" s="2">
-        <v>-21.81373</v>
+        <v>-23.50685</v>
       </c>
       <c r="F220" s="2">
-        <v>-55.710979</v>
+        <v>-46.345037</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H220" s="1"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E221" s="2">
-        <v>-23.50685</v>
+        <v>-23.018257</v>
       </c>
       <c r="F221" s="2">
-        <v>-46.345037</v>
+        <v>-46.841537</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H221" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E222" s="2">
-        <v>-23.018257</v>
+        <v>-23.52887</v>
       </c>
       <c r="F222" s="2">
-        <v>-46.841537</v>
+        <v>-46.893197</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H222" s="1"/>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E223" s="2">
-        <v>-23.52887</v>
+        <v>-23.191075</v>
       </c>
       <c r="F223" s="2">
-        <v>-46.893197</v>
+        <v>-46.876486</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H223" s="1"/>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="D224" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E224" s="2">
-        <v>-23.191075</v>
+        <v>-23.176602</v>
       </c>
       <c r="F224" s="2">
-        <v>-46.876486</v>
+        <v>-46.895763</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H224" s="1"/>
     </row>
@@ -8243,19 +8237,19 @@
         <v>603</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>601</v>
+        <v>117</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E225" s="2">
-        <v>-23.176602</v>
+        <v>-22.561438</v>
       </c>
       <c r="F225" s="2">
-        <v>-46.895763</v>
+        <v>-47.404179</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H225" s="1"/>
     </row>
@@ -8267,67 +8261,67 @@
         <v>605</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>117</v>
+        <v>606</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E226" s="2">
-        <v>-22.561438</v>
+        <v>-23.6637</v>
       </c>
       <c r="F226" s="2">
-        <v>-47.404179</v>
+        <v>-46.459211</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H226" s="1"/>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E227" s="2">
-        <v>-23.6637</v>
+        <v>-23.543285</v>
       </c>
       <c r="F227" s="2">
-        <v>-46.459211</v>
+        <v>-46.210988</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H227" s="1"/>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="D228" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E228" s="2">
-        <v>-23.543285</v>
+        <v>-23.511712</v>
       </c>
       <c r="F228" s="2">
-        <v>-46.210988</v>
+        <v>-46.195184</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H228" s="1"/>
     </row>
@@ -8339,21 +8333,23 @@
         <v>613</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E229" s="2">
-        <v>-23.511712</v>
+        <v>-23.512478</v>
       </c>
       <c r="F229" s="2">
-        <v>-46.195184</v>
+        <v>-46.188989</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H229" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="1" t="s">
@@ -8363,93 +8359,91 @@
         <v>615</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E230" s="2">
-        <v>-23.512478</v>
+        <v>-23.540651</v>
       </c>
       <c r="F230" s="2">
-        <v>-46.188989</v>
+        <v>-46.769536</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H230" s="1"/>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E231" s="2">
-        <v>-23.540651</v>
+        <v>-22.774415</v>
       </c>
       <c r="F231" s="2">
-        <v>-46.769536</v>
+        <v>-47.1466</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H231" s="1"/>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E232" s="2">
-        <v>-22.774415</v>
+        <v>-22.720401</v>
       </c>
       <c r="F232" s="2">
-        <v>-47.1466</v>
+        <v>-47.6462</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H232" s="1"/>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>624</v>
-      </c>
       <c r="D233" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E233" s="2">
-        <v>-22.720401</v>
+        <v>-22.740199</v>
       </c>
       <c r="F233" s="2">
-        <v>-47.6462</v>
+        <v>-47.6472</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H233" s="1"/>
     </row>
@@ -8461,47 +8455,47 @@
         <v>626</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E234" s="2">
-        <v>-22.740199</v>
+        <v>-23.996387</v>
       </c>
       <c r="F234" s="2">
-        <v>-47.6472</v>
+        <v>-46.4088</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H234" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="D235" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E235" s="2">
-        <v>-23.996387</v>
+        <v>-24.031913</v>
       </c>
       <c r="F235" s="2">
-        <v>-46.4088</v>
+        <v>-46.4953</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H235" s="1"/>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="1" t="s">
@@ -8511,19 +8505,19 @@
         <v>631</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E236" s="2">
-        <v>-24.031913</v>
+        <v>-24.004524</v>
       </c>
       <c r="F236" s="2">
-        <v>-46.4953</v>
+        <v>-46.429581</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H236" s="1"/>
     </row>
@@ -8535,91 +8529,91 @@
         <v>633</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E237" s="2">
-        <v>-24.004524</v>
+        <v>-22.13806</v>
       </c>
       <c r="F237" s="2">
-        <v>-46.429581</v>
+        <v>-51.413853</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H237" s="1"/>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E238" s="2">
-        <v>-22.13806</v>
+        <v>-23.703437</v>
       </c>
       <c r="F238" s="2">
-        <v>-51.413853</v>
+        <v>-46.397408</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H238" s="1"/>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E239" s="2">
-        <v>-23.703437</v>
+        <v>-21.202058</v>
       </c>
       <c r="F239" s="2">
-        <v>-46.397408</v>
+        <v>-47.763409</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H239" s="1"/>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="D240" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E240" s="2">
-        <v>-21.202058</v>
+        <v>-21.188129</v>
       </c>
       <c r="F240" s="2">
-        <v>-47.763409</v>
+        <v>-47.784816</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H240" s="1"/>
     </row>
@@ -8631,19 +8625,19 @@
         <v>644</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E241" s="2">
-        <v>-21.188129</v>
+        <v>-21.174614</v>
       </c>
       <c r="F241" s="2">
-        <v>-47.784816</v>
+        <v>-47.79425</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H241" s="1"/>
     </row>
@@ -8655,21 +8649,23 @@
         <v>646</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E242" s="2">
-        <v>-21.174614</v>
+        <v>-21.203039</v>
       </c>
       <c r="F242" s="2">
-        <v>-47.79425</v>
+        <v>-47.808771</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H242" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="1" t="s">
@@ -8679,93 +8675,91 @@
         <v>648</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E243" s="2">
-        <v>-21.203039</v>
+        <v>-22.415213</v>
       </c>
       <c r="F243" s="2">
-        <v>-47.808771</v>
+        <v>-47.5747</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H243" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H243" s="1"/>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E244" s="2">
-        <v>-22.415213</v>
+        <v>-22.746895</v>
       </c>
       <c r="F244" s="2">
-        <v>-47.5747</v>
+        <v>-47.366659</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H244" s="1"/>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E245" s="2">
-        <v>-22.746895</v>
+        <v>-23.619548</v>
       </c>
       <c r="F245" s="2">
-        <v>-47.366659</v>
+        <v>-46.542058</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H245" s="1"/>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="D246" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E246" s="2">
-        <v>-23.619548</v>
+        <v>-23.665698</v>
       </c>
       <c r="F246" s="2">
-        <v>-46.542058</v>
+        <v>-46.4966</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H246" s="1"/>
     </row>
@@ -8777,19 +8771,19 @@
         <v>659</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E247" s="2">
-        <v>-23.665698</v>
+        <v>-23.652679</v>
       </c>
       <c r="F247" s="2">
-        <v>-46.4966</v>
+        <v>-46.526217</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H247" s="1"/>
     </row>
@@ -8801,19 +8795,19 @@
         <v>661</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E248" s="2">
-        <v>-23.652679</v>
+        <v>-23.68377</v>
       </c>
       <c r="F248" s="2">
-        <v>-46.526217</v>
+        <v>-46.547399</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H248" s="1"/>
     </row>
@@ -8825,19 +8819,19 @@
         <v>663</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E249" s="2">
-        <v>-23.68377</v>
+        <v>-23.704</v>
       </c>
       <c r="F249" s="2">
-        <v>-46.547399</v>
+        <v>-46.504722</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H249" s="1"/>
     </row>
@@ -8849,45 +8843,47 @@
         <v>665</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E250" s="2">
-        <v>-23.704</v>
+        <v>-23.93087</v>
       </c>
       <c r="F250" s="2">
-        <v>-46.504722</v>
+        <v>-46.356307</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H250" s="1"/>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>668</v>
-      </c>
       <c r="D251" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E251" s="2">
-        <v>-23.93087</v>
+        <v>-23.957779</v>
       </c>
       <c r="F251" s="2">
-        <v>-46.356307</v>
+        <v>-46.332246</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H251" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="1" t="s">
@@ -8897,47 +8893,47 @@
         <v>670</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E252" s="2">
-        <v>-23.957779</v>
+        <v>-23.468999</v>
       </c>
       <c r="F252" s="2">
-        <v>-46.332246</v>
+        <v>-47.477501</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H252" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H252" s="1"/>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>673</v>
-      </c>
       <c r="D253" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E253" s="2">
-        <v>-23.468999</v>
+        <v>-23.530145</v>
       </c>
       <c r="F253" s="2">
-        <v>-47.477501</v>
+        <v>-47.464084</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H253" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="1" t="s">
@@ -8947,22 +8943,22 @@
         <v>675</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E254" s="2">
-        <v>-23.530145</v>
+        <v>-23.491095</v>
       </c>
       <c r="F254" s="2">
-        <v>-47.464084</v>
+        <v>-47.445099</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8973,47 +8969,47 @@
         <v>677</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E255" s="2">
-        <v>-23.491095</v>
+        <v>-23.538927</v>
       </c>
       <c r="F255" s="2">
-        <v>-47.445099</v>
+        <v>-46.2957</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H255" s="1"/>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>680</v>
+        <v>120</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E256" s="2">
-        <v>-23.538927</v>
+        <v>-23.688945</v>
       </c>
       <c r="F256" s="2">
-        <v>-46.2957</v>
+        <v>-46.573754</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H256" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="1" t="s">
@@ -9023,16 +9019,16 @@
         <v>682</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>120</v>
+        <v>683</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E257" s="2">
-        <v>-23.688945</v>
+        <v>-23.613882</v>
       </c>
       <c r="F257" s="2">
-        <v>-46.573754</v>
+        <v>-46.578116</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>12</v>
@@ -9043,51 +9039,49 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E258" s="2">
-        <v>-23.613882</v>
+        <v>-23.228215</v>
       </c>
       <c r="F258" s="2">
-        <v>-46.578116</v>
+        <v>-45.908166</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H258" s="1"/>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>688</v>
+        <v>123</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E259" s="2">
-        <v>-23.228215</v>
+        <v>-23.523142</v>
       </c>
       <c r="F259" s="2">
-        <v>-45.908166</v>
+        <v>-46.4751</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H259" s="1"/>
     </row>
@@ -9099,21 +9093,23 @@
         <v>690</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E260" s="2">
-        <v>-23.523142</v>
+        <v>-23.628646</v>
       </c>
       <c r="F260" s="2">
-        <v>-46.4751</v>
+        <v>-46.667667</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H260" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="1" t="s">
@@ -9123,22 +9119,22 @@
         <v>692</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E261" s="2">
-        <v>-23.628646</v>
+        <v>-23.517199</v>
       </c>
       <c r="F261" s="2">
-        <v>-46.667667</v>
+        <v>-46.726564</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9149,23 +9145,21 @@
         <v>694</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E262" s="2">
-        <v>-23.517199</v>
+        <v>-23.5631</v>
       </c>
       <c r="F262" s="2">
-        <v>-46.726564</v>
+        <v>-46.50663</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H262" s="1"/>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="1" t="s">
@@ -9175,19 +9169,19 @@
         <v>696</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E263" s="2">
-        <v>-23.5631</v>
+        <v>-23.519656</v>
       </c>
       <c r="F263" s="2">
-        <v>-46.50663</v>
+        <v>-46.673198</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H263" s="1"/>
     </row>
@@ -9199,19 +9193,19 @@
         <v>698</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E264" s="2">
-        <v>-23.519656</v>
+        <v>-23.498628</v>
       </c>
       <c r="F264" s="2">
-        <v>-46.673198</v>
+        <v>-46.664033</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H264" s="1"/>
     </row>
@@ -9223,19 +9217,19 @@
         <v>700</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E265" s="2">
-        <v>-23.498628</v>
+        <v>-23.726365</v>
       </c>
       <c r="F265" s="2">
-        <v>-46.664033</v>
+        <v>-46.700617</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H265" s="1"/>
     </row>
@@ -9247,19 +9241,19 @@
         <v>702</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E266" s="2">
-        <v>-23.726365</v>
+        <v>-23.467832</v>
       </c>
       <c r="F266" s="2">
-        <v>-46.700617</v>
+        <v>-46.572285</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H266" s="1"/>
     </row>
@@ -9271,21 +9265,23 @@
         <v>704</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E267" s="2">
-        <v>-23.467832</v>
+        <v>-23.505356</v>
       </c>
       <c r="F267" s="2">
-        <v>-46.572285</v>
+        <v>-46.68976</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H267" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="1" t="s">
@@ -9295,22 +9291,22 @@
         <v>706</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E268" s="2">
-        <v>-23.505356</v>
+        <v>-23.526843</v>
       </c>
       <c r="F268" s="2">
-        <v>-46.68976</v>
+        <v>-46.396466</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9321,23 +9317,21 @@
         <v>708</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E269" s="2">
-        <v>-23.526843</v>
+        <v>-23.542258</v>
       </c>
       <c r="F269" s="2">
-        <v>-46.396466</v>
+        <v>-46.423996</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H269" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H269" s="1"/>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="1" t="s">
@@ -9347,21 +9341,23 @@
         <v>710</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E270" s="2">
-        <v>-23.542258</v>
+        <v>-23.663383</v>
       </c>
       <c r="F270" s="2">
-        <v>-46.423996</v>
+        <v>-46.680224</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H270" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="1" t="s">
@@ -9371,23 +9367,21 @@
         <v>712</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E271" s="2">
-        <v>-23.663383</v>
+        <v>-23.546431</v>
       </c>
       <c r="F271" s="2">
-        <v>-46.680224</v>
+        <v>-46.9469</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H271" s="1"/>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="1" t="s">
@@ -9397,19 +9391,19 @@
         <v>714</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E272" s="2">
-        <v>-23.546431</v>
+        <v>-23.553196</v>
       </c>
       <c r="F272" s="2">
-        <v>-46.9469</v>
+        <v>-46.488428</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H272" s="1"/>
     </row>
@@ -9421,19 +9415,19 @@
         <v>716</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E273" s="2">
-        <v>-23.553196</v>
+        <v>-23.467191</v>
       </c>
       <c r="F273" s="2">
-        <v>-46.488428</v>
+        <v>-46.584729</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H273" s="1"/>
     </row>
@@ -9445,19 +9439,19 @@
         <v>718</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E274" s="2">
-        <v>-23.467191</v>
+        <v>-23.641707</v>
       </c>
       <c r="F274" s="2">
-        <v>-46.584729</v>
+        <v>-46.644191</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H274" s="1"/>
     </row>
@@ -9469,19 +9463,19 @@
         <v>720</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E275" s="2">
-        <v>-23.641707</v>
+        <v>-23.565317</v>
       </c>
       <c r="F275" s="2">
-        <v>-46.644191</v>
+        <v>-46.446522</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H275" s="1"/>
     </row>
@@ -9493,19 +9487,19 @@
         <v>722</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E276" s="2">
-        <v>-23.565317</v>
+        <v>-23.552853</v>
       </c>
       <c r="F276" s="2">
-        <v>-46.446522</v>
+        <v>-46.742244</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H276" s="1"/>
     </row>
@@ -9517,21 +9511,23 @@
         <v>724</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E277" s="2">
-        <v>-23.552853</v>
+        <v>-23.556875</v>
       </c>
       <c r="F277" s="2">
-        <v>-46.742244</v>
+        <v>-46.748359</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H277" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="1" t="s">
@@ -9541,23 +9537,21 @@
         <v>726</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E278" s="2">
-        <v>-23.556875</v>
+        <v>-23.449862</v>
       </c>
       <c r="F278" s="2">
-        <v>-46.748359</v>
+        <v>-46.722528</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H278" s="1"/>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="1" t="s">
@@ -9567,19 +9561,19 @@
         <v>728</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E279" s="2">
-        <v>-23.449862</v>
+        <v>-23.678527</v>
       </c>
       <c r="F279" s="2">
-        <v>-46.722528</v>
+        <v>-46.695575</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H279" s="1"/>
     </row>
@@ -9591,19 +9585,19 @@
         <v>730</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E280" s="2">
-        <v>-23.678527</v>
+        <v>-23.510605</v>
       </c>
       <c r="F280" s="2">
-        <v>-46.695575</v>
+        <v>-46.430522</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H280" s="1"/>
     </row>
@@ -9615,19 +9609,19 @@
         <v>732</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E281" s="2">
-        <v>-23.510605</v>
+        <v>-23.512795</v>
       </c>
       <c r="F281" s="2">
-        <v>-46.430522</v>
+        <v>-46.553893</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H281" s="1"/>
     </row>
@@ -9639,21 +9633,23 @@
         <v>734</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E282" s="2">
-        <v>-23.512795</v>
+        <v>-23.515934</v>
       </c>
       <c r="F282" s="2">
-        <v>-46.553893</v>
+        <v>-46.51868</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H282" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="1" t="s">
@@ -9663,16 +9659,16 @@
         <v>736</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E283" s="2">
-        <v>-23.515934</v>
+        <v>-23.584363</v>
       </c>
       <c r="F283" s="2">
-        <v>-46.51868</v>
+        <v>-46.747152</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>12</v>
@@ -9689,23 +9685,21 @@
         <v>738</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E284" s="2">
-        <v>-23.584363</v>
+        <v>-23.610402</v>
       </c>
       <c r="F284" s="2">
-        <v>-46.747152</v>
+        <v>-46.474088</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H284" s="1"/>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="1" t="s">
@@ -9715,19 +9709,19 @@
         <v>740</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E285" s="2">
-        <v>-23.610402</v>
+        <v>-23.495519</v>
       </c>
       <c r="F285" s="2">
-        <v>-46.474088</v>
+        <v>-46.434025</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H285" s="1"/>
     </row>
@@ -9739,19 +9733,19 @@
         <v>742</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E286" s="2">
-        <v>-23.495519</v>
+        <v>-23.501481</v>
       </c>
       <c r="F286" s="2">
-        <v>-46.434025</v>
+        <v>-46.470277</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H286" s="1"/>
     </row>
@@ -9763,19 +9757,19 @@
         <v>744</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E287" s="2">
-        <v>-23.501481</v>
+        <v>-23.649655</v>
       </c>
       <c r="F287" s="2">
-        <v>-46.470277</v>
+        <v>-46.661631</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H287" s="1"/>
     </row>
@@ -9787,19 +9781,19 @@
         <v>746</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E288" s="2">
-        <v>-23.649655</v>
+        <v>-23.602287</v>
       </c>
       <c r="F288" s="2">
-        <v>-46.661631</v>
+        <v>-46.511086</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H288" s="1"/>
     </row>
@@ -9811,19 +9805,19 @@
         <v>748</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E289" s="2">
-        <v>-23.602287</v>
+        <v>-23.472677</v>
       </c>
       <c r="F289" s="2">
-        <v>-46.511086</v>
+        <v>-46.608557</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H289" s="1"/>
     </row>
@@ -9835,19 +9829,19 @@
         <v>750</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E290" s="2">
-        <v>-23.472677</v>
+        <v>-23.617824</v>
       </c>
       <c r="F290" s="2">
-        <v>-46.608557</v>
+        <v>-46.609115</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H290" s="1"/>
     </row>
@@ -9859,19 +9853,19 @@
         <v>752</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E291" s="2">
-        <v>-23.617824</v>
+        <v>-23.772299</v>
       </c>
       <c r="F291" s="2">
-        <v>-46.609115</v>
+        <v>-46.719476</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H291" s="1"/>
     </row>
@@ -9883,19 +9877,19 @@
         <v>754</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E292" s="2">
-        <v>-23.772299</v>
+        <v>-23.551045</v>
       </c>
       <c r="F292" s="2">
-        <v>-46.719476</v>
+        <v>-46.527482</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H292" s="1"/>
     </row>
@@ -9907,19 +9901,19 @@
         <v>756</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E293" s="2">
-        <v>-23.551045</v>
+        <v>-23.595196</v>
       </c>
       <c r="F293" s="2">
-        <v>-46.527482</v>
+        <v>-46.737845</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H293" s="1"/>
     </row>
@@ -9931,69 +9925,71 @@
         <v>758</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>125</v>
+        <v>759</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E294" s="2">
-        <v>-23.595196</v>
+        <v>-23.962595</v>
       </c>
       <c r="F294" s="2">
-        <v>-46.737845</v>
+        <v>-46.380576</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H294" s="1"/>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E295" s="2">
-        <v>-23.962595</v>
+        <v>-23.64102</v>
       </c>
       <c r="F295" s="2">
-        <v>-46.380576</v>
+        <v>-46.8048</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H295" s="1"/>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>764</v>
-      </c>
       <c r="D296" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E296" s="2">
-        <v>-23.64102</v>
+        <v>-23.608467</v>
       </c>
       <c r="F296" s="2">
-        <v>-46.8048</v>
+        <v>-46.75295</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H296" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="1" t="s">
@@ -10003,23 +9999,21 @@
         <v>766</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E297" s="2">
-        <v>-23.608467</v>
+        <v>-23.613221</v>
       </c>
       <c r="F297" s="2">
-        <v>-46.75295</v>
+        <v>-46.781066</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H297" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H297" s="1"/>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="1" t="s">
@@ -10029,120 +10023,96 @@
         <v>768</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E298" s="2">
-        <v>-23.613221</v>
+        <v>-23.529796</v>
       </c>
       <c r="F298" s="2">
-        <v>-46.781066</v>
+        <v>-46.578482</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H298" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E299" s="2">
-        <v>-23.529796</v>
+        <v>-23.024431</v>
       </c>
       <c r="F299" s="2">
-        <v>-46.578482</v>
+        <v>-45.55644</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H299" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H299" s="1"/>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>109</v>
+        <v>776</v>
       </c>
       <c r="E300" s="2">
-        <v>-23.024431</v>
+        <v>-10.250802</v>
       </c>
       <c r="F300" s="2">
-        <v>-45.55644</v>
+        <v>-48.333348</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H300" s="1"/>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>778</v>
-      </c>
       <c r="E301" s="2">
-        <v>-10.250802</v>
+        <v>-10.207782</v>
       </c>
       <c r="F301" s="2">
-        <v>-48.333348</v>
+        <v>-48.330219</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H301" s="1"/>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="E302" s="2">
-        <v>-10.207782</v>
-      </c>
-      <c r="F302" s="2">
-        <v>-48.330219</v>
-      </c>
-      <c r="G302" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H302" s="1" t="s">
-        <v>203</v>
+      <c r="H301" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/lojasAssaiDiff.xlsx
+++ b/data/lojasAssaiDiff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="779">
   <si>
     <t>value</t>
   </si>
@@ -2412,8 +2412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:H301" totalsRowShown="0">
-  <autoFilter ref="A1:H301"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:H299" totalsRowShown="0">
+  <autoFilter ref="A1:H299"/>
   <tableColumns count="8">
     <tableColumn id="1" name="value" dataDxfId="0"/>
     <tableColumn id="2" name="Endereço" dataDxfId="0"/>
@@ -2713,7 +2713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H301"/>
+  <dimension ref="A1:H299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4715,18 +4715,16 @@
         <v>-38.57095</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>25</v>
@@ -4735,10 +4733,10 @@
         <v>26</v>
       </c>
       <c r="E81" s="2">
-        <v>-3.728226</v>
+        <v>-3.736325</v>
       </c>
       <c r="F81" s="2">
-        <v>-38.57095</v>
+        <v>-38.58271</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>12</v>
@@ -4749,10 +4747,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>25</v>
@@ -4761,24 +4759,22 @@
         <v>26</v>
       </c>
       <c r="E82" s="2">
-        <v>-3.736325</v>
+        <v>-3.778641</v>
       </c>
       <c r="F82" s="2">
-        <v>-38.58271</v>
+        <v>-38.564907</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>25</v>
@@ -4787,10 +4783,10 @@
         <v>26</v>
       </c>
       <c r="E83" s="2">
-        <v>-3.778641</v>
+        <v>-3.84058</v>
       </c>
       <c r="F83" s="2">
-        <v>-38.564907</v>
+        <v>-38.480795</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>143</v>
@@ -4799,10 +4795,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>25</v>
@@ -4811,10 +4807,10 @@
         <v>26</v>
       </c>
       <c r="E84" s="2">
-        <v>-3.84058</v>
+        <v>-3.800384</v>
       </c>
       <c r="F84" s="2">
-        <v>-38.480795</v>
+        <v>-38.479505</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>143</v>
@@ -4823,22 +4819,22 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E85" s="2">
-        <v>-3.800384</v>
+        <v>-6.352546</v>
       </c>
       <c r="F85" s="2">
-        <v>-38.479505</v>
+        <v>-39.306754</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>143</v>
@@ -4847,22 +4843,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E86" s="2">
-        <v>-6.352546</v>
+        <v>-7.22674</v>
       </c>
       <c r="F86" s="2">
-        <v>-39.306754</v>
+        <v>-39.347447</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>143</v>
@@ -4871,22 +4867,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E87" s="2">
-        <v>-7.22674</v>
+        <v>-3.851611</v>
       </c>
       <c r="F87" s="2">
-        <v>-39.347447</v>
+        <v>-38.588003</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>143</v>
@@ -4895,22 +4891,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E88" s="2">
-        <v>-3.851611</v>
+        <v>-3.706588</v>
       </c>
       <c r="F88" s="2">
-        <v>-38.588003</v>
+        <v>-40.354971</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>143</v>
@@ -4919,34 +4915,36 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="E89" s="2">
-        <v>-3.706588</v>
+        <v>-15.733992</v>
       </c>
       <c r="F89" s="2">
-        <v>-40.354971</v>
+        <v>-47.900487</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H89" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>259</v>
@@ -4955,10 +4953,10 @@
         <v>260</v>
       </c>
       <c r="E90" s="2">
-        <v>-15.733992</v>
+        <v>-15.834223</v>
       </c>
       <c r="F90" s="2">
-        <v>-47.900487</v>
+        <v>-47.950509</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>12</v>
@@ -4969,10 +4967,10 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>259</v>
@@ -4981,10 +4979,10 @@
         <v>260</v>
       </c>
       <c r="E91" s="2">
-        <v>-15.834223</v>
+        <v>-15.794704</v>
       </c>
       <c r="F91" s="2">
-        <v>-47.950509</v>
+        <v>-47.950328</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>12</v>
@@ -4995,10 +4993,10 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>259</v>
@@ -5007,24 +5005,22 @@
         <v>260</v>
       </c>
       <c r="E92" s="2">
-        <v>-15.794704</v>
+        <v>-21.794257</v>
       </c>
       <c r="F92" s="2">
-        <v>-47.950328</v>
+        <v>-55.721283</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>259</v>
@@ -5033,34 +5029,36 @@
         <v>260</v>
       </c>
       <c r="E93" s="2">
-        <v>-21.794257</v>
+        <v>-15.835678</v>
       </c>
       <c r="F93" s="2">
-        <v>-55.721283</v>
+        <v>-48.048586</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H93" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>260</v>
       </c>
       <c r="E94" s="2">
-        <v>-15.835678</v>
+        <v>-15.821498</v>
       </c>
       <c r="F94" s="2">
-        <v>-48.048586</v>
+        <v>-48.103147</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>12</v>
@@ -5071,48 +5069,46 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="E95" s="2">
-        <v>-15.821498</v>
+        <v>-21.758563</v>
       </c>
       <c r="F95" s="2">
-        <v>-48.103147</v>
+        <v>-55.748726</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E96" s="2">
-        <v>-21.758563</v>
+        <v>-17.721371</v>
       </c>
       <c r="F96" s="2">
-        <v>-55.748726</v>
+        <v>-48.640064</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>143</v>
@@ -5121,22 +5117,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E97" s="2">
-        <v>-17.721371</v>
+        <v>-16.729536</v>
       </c>
       <c r="F97" s="2">
-        <v>-48.640064</v>
+        <v>-49.290103</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>143</v>
@@ -5145,10 +5141,10 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>281</v>
@@ -5157,10 +5153,10 @@
         <v>275</v>
       </c>
       <c r="E98" s="2">
-        <v>-16.729536</v>
+        <v>-16.650884</v>
       </c>
       <c r="F98" s="2">
-        <v>-49.290103</v>
+        <v>-49.317726</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>143</v>
@@ -5169,10 +5165,10 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>281</v>
@@ -5181,22 +5177,24 @@
         <v>275</v>
       </c>
       <c r="E99" s="2">
-        <v>-16.650884</v>
+        <v>-16.692575</v>
       </c>
       <c r="F99" s="2">
-        <v>-49.317726</v>
+        <v>-49.270224</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H99" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>281</v>
@@ -5205,24 +5203,22 @@
         <v>275</v>
       </c>
       <c r="E100" s="2">
-        <v>-16.692575</v>
+        <v>-16.71033</v>
       </c>
       <c r="F100" s="2">
-        <v>-49.270224</v>
+        <v>-49.31182</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>281</v>
@@ -5231,10 +5227,10 @@
         <v>275</v>
       </c>
       <c r="E101" s="2">
-        <v>-16.71033</v>
+        <v>-16.663072</v>
       </c>
       <c r="F101" s="2">
-        <v>-49.31182</v>
+        <v>-49.256211</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>143</v>
@@ -5243,22 +5239,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E102" s="2">
-        <v>-16.663072</v>
+        <v>-17.807692</v>
       </c>
       <c r="F102" s="2">
-        <v>-49.256211</v>
+        <v>-50.924531</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>143</v>
@@ -5267,22 +5263,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E103" s="2">
-        <v>-17.807692</v>
+        <v>-16.079408</v>
       </c>
       <c r="F103" s="2">
-        <v>-50.924531</v>
+        <v>-47.986779</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>143</v>
@@ -5291,22 +5287,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="E104" s="2">
-        <v>-16.079408</v>
+        <v>-5.488992</v>
       </c>
       <c r="F104" s="2">
-        <v>-47.986779</v>
+        <v>-47.473164</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>143</v>
@@ -5315,22 +5311,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E105" s="2">
-        <v>-5.488992</v>
+        <v>-21.946501</v>
       </c>
       <c r="F105" s="2">
-        <v>-47.473164</v>
+        <v>-55.861344</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>143</v>
@@ -5339,10 +5335,10 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>40</v>
@@ -5351,10 +5347,10 @@
         <v>41</v>
       </c>
       <c r="E106" s="2">
-        <v>-21.946501</v>
+        <v>-2.499676</v>
       </c>
       <c r="F106" s="2">
-        <v>-55.861344</v>
+        <v>-44.229533</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>143</v>
@@ -5363,22 +5359,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E107" s="2">
-        <v>-2.499676</v>
+        <v>-15.630102</v>
       </c>
       <c r="F107" s="2">
-        <v>-44.229533</v>
+        <v>-56.0531</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>143</v>
@@ -5387,10 +5383,10 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>44</v>
@@ -5399,10 +5395,10 @@
         <v>45</v>
       </c>
       <c r="E108" s="2">
-        <v>-15.630102</v>
+        <v>-15.60819</v>
       </c>
       <c r="F108" s="2">
-        <v>-56.0531</v>
+        <v>-56.078426</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>143</v>
@@ -5411,22 +5407,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E109" s="2">
-        <v>-15.60819</v>
+        <v>-16.466385</v>
       </c>
       <c r="F109" s="2">
-        <v>-56.078426</v>
+        <v>-54.643784</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>143</v>
@@ -5435,10 +5431,10 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>309</v>
@@ -5447,10 +5443,10 @@
         <v>45</v>
       </c>
       <c r="E110" s="2">
-        <v>-16.466385</v>
+        <v>-16.449301</v>
       </c>
       <c r="F110" s="2">
-        <v>-54.643784</v>
+        <v>-54.6222</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>143</v>
@@ -5459,22 +5455,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E111" s="2">
-        <v>-16.449301</v>
+        <v>-11.852774</v>
       </c>
       <c r="F111" s="2">
-        <v>-54.6222</v>
+        <v>-55.496359</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>143</v>
@@ -5483,22 +5479,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E112" s="2">
-        <v>-11.852774</v>
+        <v>-15.639299</v>
       </c>
       <c r="F112" s="2">
-        <v>-55.496359</v>
+        <v>-56.102133</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>143</v>
@@ -5507,22 +5503,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E113" s="2">
-        <v>-15.639299</v>
+        <v>-20.489879</v>
       </c>
       <c r="F113" s="2">
-        <v>-56.102133</v>
+        <v>-54.621</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>143</v>
@@ -5531,10 +5527,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>48</v>
@@ -5543,10 +5539,10 @@
         <v>49</v>
       </c>
       <c r="E114" s="2">
-        <v>-20.489879</v>
+        <v>-20.457593</v>
       </c>
       <c r="F114" s="2">
-        <v>-54.621</v>
+        <v>-54.665889</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>143</v>
@@ -5555,10 +5551,10 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>48</v>
@@ -5567,10 +5563,10 @@
         <v>49</v>
       </c>
       <c r="E115" s="2">
-        <v>-20.457593</v>
+        <v>-20.431939</v>
       </c>
       <c r="F115" s="2">
-        <v>-54.665889</v>
+        <v>-54.5924</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>143</v>
@@ -5579,22 +5575,22 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>48</v>
+        <v>326</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E116" s="2">
-        <v>-20.431939</v>
+        <v>-22.249694</v>
       </c>
       <c r="F116" s="2">
-        <v>-54.5924</v>
+        <v>-54.783465</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>143</v>
@@ -5603,72 +5599,72 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E117" s="2">
-        <v>-22.249694</v>
+        <v>-19.97429</v>
       </c>
       <c r="F117" s="2">
-        <v>-54.783465</v>
+        <v>-43.947966</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H117" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>54</v>
+        <v>331</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E118" s="2">
-        <v>-19.97429</v>
+        <v>-19.957615</v>
       </c>
       <c r="F118" s="2">
-        <v>-43.947966</v>
+        <v>-44.1727541</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E119" s="2">
-        <v>-19.957615</v>
+        <v>-19.936917</v>
       </c>
       <c r="F119" s="2">
-        <v>-44.1727541</v>
+        <v>-44.059467</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>143</v>
@@ -5677,72 +5673,72 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E120" s="2">
-        <v>-19.936917</v>
+        <v>-19.485133</v>
       </c>
       <c r="F120" s="2">
-        <v>-44.059467</v>
+        <v>-42.556392</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H120" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E121" s="2">
-        <v>-19.485133</v>
+        <v>-19.466272</v>
       </c>
       <c r="F121" s="2">
-        <v>-42.556392</v>
+        <v>-44.244</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E122" s="2">
-        <v>-19.466272</v>
+        <v>-18.930362</v>
       </c>
       <c r="F122" s="2">
-        <v>-44.244</v>
+        <v>-48.284806</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>143</v>
@@ -5751,22 +5747,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E123" s="2">
-        <v>-18.930362</v>
+        <v>-25.39095</v>
       </c>
       <c r="F123" s="2">
-        <v>-48.284806</v>
+        <v>-49.209487</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>143</v>
@@ -5775,10 +5771,10 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>346</v>
@@ -5787,10 +5783,10 @@
         <v>65</v>
       </c>
       <c r="E124" s="2">
-        <v>-25.39095</v>
+        <v>-25.514484</v>
       </c>
       <c r="F124" s="2">
-        <v>-49.209487</v>
+        <v>-49.290801</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>143</v>
@@ -5799,10 +5795,10 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>346</v>
@@ -5811,22 +5807,24 @@
         <v>65</v>
       </c>
       <c r="E125" s="2">
-        <v>-25.514484</v>
+        <v>-25.447629</v>
       </c>
       <c r="F125" s="2">
-        <v>-49.290801</v>
+        <v>-49.289626</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H125" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>346</v>
@@ -5835,24 +5833,22 @@
         <v>65</v>
       </c>
       <c r="E126" s="2">
-        <v>-25.447629</v>
+        <v>-25.454856</v>
       </c>
       <c r="F126" s="2">
-        <v>-49.289626</v>
+        <v>-49.361585</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>346</v>
@@ -5861,34 +5857,36 @@
         <v>65</v>
       </c>
       <c r="E127" s="2">
-        <v>-25.454856</v>
+        <v>-25.453052</v>
       </c>
       <c r="F127" s="2">
-        <v>-49.361585</v>
+        <v>-49.270486</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H127" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E128" s="2">
-        <v>-25.453052</v>
+        <v>-23.292975</v>
       </c>
       <c r="F128" s="2">
-        <v>-49.270486</v>
+        <v>-51.212794</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>143</v>
@@ -5897,10 +5895,10 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>357</v>
@@ -5909,10 +5907,10 @@
         <v>65</v>
       </c>
       <c r="E129" s="2">
-        <v>-23.292975</v>
+        <v>-23.25914</v>
       </c>
       <c r="F129" s="2">
-        <v>-51.212794</v>
+        <v>-51.160062</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>143</v>
@@ -5921,22 +5919,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E130" s="2">
-        <v>-23.25914</v>
+        <v>-23.424105</v>
       </c>
       <c r="F130" s="2">
-        <v>-51.160062</v>
+        <v>-51.900104</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>143</v>
@@ -5945,10 +5943,10 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>362</v>
@@ -5957,10 +5955,10 @@
         <v>65</v>
       </c>
       <c r="E131" s="2">
-        <v>-23.424105</v>
+        <v>-23.418386</v>
       </c>
       <c r="F131" s="2">
-        <v>-51.900104</v>
+        <v>-51.970497</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>143</v>
@@ -5969,22 +5967,22 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>65</v>
+        <v>368</v>
       </c>
       <c r="E132" s="2">
-        <v>-23.418386</v>
+        <v>-7.088823</v>
       </c>
       <c r="F132" s="2">
-        <v>-51.970497</v>
+        <v>-34.849024</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>143</v>
@@ -5993,34 +5991,36 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>368</v>
       </c>
       <c r="E133" s="2">
-        <v>-7.088823</v>
+        <v>-7.237757</v>
       </c>
       <c r="F133" s="2">
-        <v>-34.849024</v>
+        <v>-35.88891</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H133" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>371</v>
@@ -6029,62 +6029,60 @@
         <v>368</v>
       </c>
       <c r="E134" s="2">
-        <v>-7.237757</v>
+        <v>-7.234129</v>
       </c>
       <c r="F134" s="2">
-        <v>-35.88891</v>
+        <v>-35.867355</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>368</v>
       </c>
       <c r="E135" s="2">
-        <v>-7.237757</v>
+        <v>-7.11933</v>
       </c>
       <c r="F135" s="2">
-        <v>-35.88891</v>
+        <v>-34.85863</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>368</v>
       </c>
       <c r="E136" s="2">
-        <v>-7.234129</v>
+        <v>-7.172674</v>
       </c>
       <c r="F136" s="2">
-        <v>-35.867355</v>
+        <v>-34.871158</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>143</v>
@@ -6093,48 +6091,46 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="E137" s="2">
-        <v>-7.11933</v>
+        <v>-1.366274</v>
       </c>
       <c r="F137" s="2">
-        <v>-34.85863</v>
+        <v>-48.368671</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="E138" s="2">
-        <v>-7.172674</v>
+        <v>-1.463966</v>
       </c>
       <c r="F138" s="2">
-        <v>-34.871158</v>
+        <v>-48.49758</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>143</v>
@@ -6143,22 +6139,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>382</v>
       </c>
       <c r="E139" s="2">
-        <v>-1.366274</v>
+        <v>-1.359051</v>
       </c>
       <c r="F139" s="2">
-        <v>-48.368671</v>
+        <v>-48.429256</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>143</v>
@@ -6167,10 +6163,10 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>385</v>
@@ -6179,10 +6175,10 @@
         <v>382</v>
       </c>
       <c r="E140" s="2">
-        <v>-1.463966</v>
+        <v>-2.02793</v>
       </c>
       <c r="F140" s="2">
-        <v>-48.49758</v>
+        <v>-50.324609</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>143</v>
@@ -6191,22 +6187,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>382</v>
       </c>
       <c r="E141" s="2">
-        <v>-1.359051</v>
+        <v>-1.295135</v>
       </c>
       <c r="F141" s="2">
-        <v>-48.429256</v>
+        <v>-47.894219</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>143</v>
@@ -6215,22 +6211,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>382</v>
       </c>
       <c r="E142" s="2">
-        <v>-2.02793</v>
+        <v>-21.805113</v>
       </c>
       <c r="F142" s="2">
-        <v>-50.324609</v>
+        <v>-55.707521</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>143</v>
@@ -6239,22 +6235,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>382</v>
       </c>
       <c r="E143" s="2">
-        <v>-1.295135</v>
+        <v>-21.811683</v>
       </c>
       <c r="F143" s="2">
-        <v>-47.894219</v>
+        <v>-55.69931</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>143</v>
@@ -6263,22 +6259,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>382</v>
+        <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>-21.805113</v>
+        <v>-8.291225000000001</v>
       </c>
       <c r="F144" s="2">
-        <v>-55.707521</v>
+        <v>-35.0255648</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>143</v>
@@ -6287,22 +6283,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>382</v>
+        <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>-21.811683</v>
+        <v>-8.019672999999999</v>
       </c>
       <c r="F145" s="2">
-        <v>-55.69931</v>
+        <v>-34.971455</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>143</v>
@@ -6311,22 +6307,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>-8.291225000000001</v>
+        <v>-8.283161</v>
       </c>
       <c r="F146" s="2">
-        <v>-35.0255648</v>
+        <v>-35.967333</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>143</v>
@@ -6335,22 +6331,22 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>-8.019672999999999</v>
+        <v>-21.84819</v>
       </c>
       <c r="F147" s="2">
-        <v>-34.971455</v>
+        <v>-55.724879</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>143</v>
@@ -6359,22 +6355,22 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>-8.283161</v>
+        <v>-8.875228</v>
       </c>
       <c r="F148" s="2">
-        <v>-35.967333</v>
+        <v>-36.462714</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>143</v>
@@ -6383,22 +6379,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>-21.84819</v>
+        <v>-8.170934000000001</v>
       </c>
       <c r="F149" s="2">
-        <v>-55.724879</v>
+        <v>-34.91846</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>143</v>
@@ -6407,22 +6403,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>-8.875228</v>
+        <v>-7.918127</v>
       </c>
       <c r="F150" s="2">
-        <v>-36.462714</v>
+        <v>-34.89439</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>143</v>
@@ -6431,22 +6427,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>-8.170934000000001</v>
+        <v>-9.380454</v>
       </c>
       <c r="F151" s="2">
-        <v>-34.91846</v>
+        <v>-40.515493</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>143</v>
@@ -6455,22 +6451,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>418</v>
+        <v>72</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>-7.918127</v>
+        <v>-8.077228</v>
       </c>
       <c r="F152" s="2">
-        <v>-34.89439</v>
+        <v>-34.93792</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>143</v>
@@ -6479,34 +6475,36 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>421</v>
+        <v>72</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>-9.380454</v>
+        <v>-8.104634000000001</v>
       </c>
       <c r="F153" s="2">
-        <v>-40.515493</v>
+        <v>-34.889698</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H153" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>72</v>
@@ -6515,10 +6513,10 @@
         <v>69</v>
       </c>
       <c r="E154" s="2">
-        <v>-8.077228</v>
+        <v>-8.100923999999999</v>
       </c>
       <c r="F154" s="2">
-        <v>-34.93792</v>
+        <v>-34.911144</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>143</v>
@@ -6527,48 +6525,46 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E155" s="2">
-        <v>-8.104634000000001</v>
+        <v>-7.984662</v>
       </c>
       <c r="F155" s="2">
-        <v>-34.889698</v>
+        <v>-38.301118</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H155" s="1"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>72</v>
+        <v>433</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>69</v>
+        <v>434</v>
       </c>
       <c r="E156" s="2">
-        <v>-8.100923999999999</v>
+        <v>-21.810514</v>
       </c>
       <c r="F156" s="2">
-        <v>-34.911144</v>
+        <v>-55.733643</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>143</v>
@@ -6577,22 +6573,22 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>69</v>
+        <v>434</v>
       </c>
       <c r="E157" s="2">
-        <v>-7.984662</v>
+        <v>-22.002862</v>
       </c>
       <c r="F157" s="2">
-        <v>-38.301118</v>
+        <v>-55.889963</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>143</v>
@@ -6601,22 +6597,22 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>434</v>
       </c>
       <c r="E158" s="2">
-        <v>-21.810514</v>
+        <v>-5.060075</v>
       </c>
       <c r="F158" s="2">
-        <v>-55.733643</v>
+        <v>-42.80603</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>143</v>
@@ -6625,22 +6621,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>434</v>
       </c>
       <c r="E159" s="2">
-        <v>-22.002862</v>
+        <v>-5.10919</v>
       </c>
       <c r="F159" s="2">
-        <v>-55.889963</v>
+        <v>-42.772868</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>143</v>
@@ -6649,10 +6645,10 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>439</v>
+        <v>354</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>440</v>
@@ -6661,34 +6657,36 @@
         <v>434</v>
       </c>
       <c r="E160" s="2">
-        <v>-5.060075</v>
+        <v>-5.078338</v>
       </c>
       <c r="F160" s="2">
-        <v>-42.80603</v>
+        <v>-42.77427</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H160" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="E161" s="2">
-        <v>-5.10919</v>
+        <v>-5.866983</v>
       </c>
       <c r="F161" s="2">
-        <v>-42.772868</v>
+        <v>-35.21748</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>143</v>
@@ -6697,22 +6695,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>354</v>
+        <v>447</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="E162" s="2">
-        <v>-5.078338</v>
+        <v>-5.771151</v>
       </c>
       <c r="F162" s="2">
-        <v>-42.77427</v>
+        <v>-35.2667</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>143</v>
@@ -6721,122 +6719,122 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E163" s="2">
-        <v>-5.866983</v>
+        <v>-5.883533</v>
       </c>
       <c r="F163" s="2">
-        <v>-35.21748</v>
+        <v>-35.212851</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H163" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E164" s="2">
-        <v>-5.771151</v>
+        <v>-22.858827</v>
       </c>
       <c r="F164" s="2">
-        <v>-35.2667</v>
+        <v>-42.328644</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H164" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E165" s="2">
-        <v>-5.883533</v>
+        <v>-22.890185</v>
       </c>
       <c r="F165" s="2">
-        <v>-35.212851</v>
+        <v>-42.04847</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H165" s="1"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E166" s="2">
-        <v>-22.858827</v>
+        <v>-21.879355</v>
       </c>
       <c r="F166" s="2">
-        <v>-42.328644</v>
+        <v>-55.648384</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H166" s="1"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E167" s="2">
-        <v>-22.890185</v>
+        <v>-22.776542</v>
       </c>
       <c r="F167" s="2">
-        <v>-42.04847</v>
+        <v>-43.307696</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>143</v>
@@ -6845,22 +6843,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E168" s="2">
-        <v>-21.879355</v>
+        <v>-22.940776</v>
       </c>
       <c r="F168" s="2">
-        <v>-55.648384</v>
+        <v>-43.3431</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>143</v>
@@ -6869,22 +6867,22 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E169" s="2">
-        <v>-22.776542</v>
+        <v>-22.345509</v>
       </c>
       <c r="F169" s="2">
-        <v>-43.307696</v>
+        <v>-41.794318</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>143</v>
@@ -6893,22 +6891,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E170" s="2">
-        <v>-22.940776</v>
+        <v>-21.831933</v>
       </c>
       <c r="F170" s="2">
-        <v>-43.3431</v>
+        <v>-55.736513</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>143</v>
@@ -6917,22 +6915,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E171" s="2">
-        <v>-22.345509</v>
+        <v>-22.804375</v>
       </c>
       <c r="F171" s="2">
-        <v>-41.794318</v>
+        <v>-43.4183</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>143</v>
@@ -6941,22 +6939,22 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>470</v>
+        <v>86</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E172" s="2">
-        <v>-21.831933</v>
+        <v>-22.877645</v>
       </c>
       <c r="F172" s="2">
-        <v>-55.736513</v>
+        <v>-43.108843</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>143</v>
@@ -6965,22 +6963,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>473</v>
+        <v>89</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E173" s="2">
-        <v>-22.804375</v>
+        <v>-22.762351</v>
       </c>
       <c r="F173" s="2">
-        <v>-43.4183</v>
+        <v>-43.4454</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>143</v>
@@ -6989,22 +6987,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>86</v>
+        <v>480</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E174" s="2">
-        <v>-22.877645</v>
+        <v>-22.468502</v>
       </c>
       <c r="F174" s="2">
-        <v>-43.108843</v>
+        <v>-43.148609</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>143</v>
@@ -7013,22 +7011,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E175" s="2">
-        <v>-22.762351</v>
+        <v>-22.960839</v>
       </c>
       <c r="F175" s="2">
-        <v>-43.4454</v>
+        <v>-43.357242</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>143</v>
@@ -7037,22 +7035,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>480</v>
+        <v>92</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E176" s="2">
-        <v>-22.468502</v>
+        <v>-22.879658</v>
       </c>
       <c r="F176" s="2">
-        <v>-43.148609</v>
+        <v>-43.4655</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>143</v>
@@ -7061,10 +7059,10 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>92</v>
@@ -7073,10 +7071,10 @@
         <v>83</v>
       </c>
       <c r="E177" s="2">
-        <v>-22.960839</v>
+        <v>-23.001891</v>
       </c>
       <c r="F177" s="2">
-        <v>-43.357242</v>
+        <v>-43.3254</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>143</v>
@@ -7085,10 +7083,10 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>92</v>
@@ -7097,10 +7095,10 @@
         <v>83</v>
       </c>
       <c r="E178" s="2">
-        <v>-22.879658</v>
+        <v>-22.881326</v>
       </c>
       <c r="F178" s="2">
-        <v>-43.4655</v>
+        <v>-43.342254</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>143</v>
@@ -7109,10 +7107,10 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>92</v>
@@ -7121,22 +7119,24 @@
         <v>83</v>
       </c>
       <c r="E179" s="2">
-        <v>-23.001891</v>
+        <v>-22.849869</v>
       </c>
       <c r="F179" s="2">
-        <v>-43.3254</v>
+        <v>-43.3114</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H179" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>92</v>
@@ -7145,10 +7145,10 @@
         <v>83</v>
       </c>
       <c r="E180" s="2">
-        <v>-22.881326</v>
+        <v>-22.827286</v>
       </c>
       <c r="F180" s="2">
-        <v>-43.342254</v>
+        <v>-43.338618</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>143</v>
@@ -7157,10 +7157,10 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>92</v>
@@ -7169,24 +7169,22 @@
         <v>83</v>
       </c>
       <c r="E181" s="2">
-        <v>-22.849869</v>
+        <v>-22.906593</v>
       </c>
       <c r="F181" s="2">
-        <v>-43.3114</v>
+        <v>-43.564551</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H181" s="1"/>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>92</v>
@@ -7195,22 +7193,24 @@
         <v>83</v>
       </c>
       <c r="E182" s="2">
-        <v>-22.827286</v>
+        <v>-22.818079</v>
       </c>
       <c r="F182" s="2">
-        <v>-43.338618</v>
+        <v>-43.287855</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H182" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>92</v>
@@ -7219,10 +7219,10 @@
         <v>83</v>
       </c>
       <c r="E183" s="2">
-        <v>-22.906593</v>
+        <v>-22.803149</v>
       </c>
       <c r="F183" s="2">
-        <v>-43.564551</v>
+        <v>-43.202801</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>143</v>
@@ -7231,10 +7231,10 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>92</v>
@@ -7243,24 +7243,22 @@
         <v>83</v>
       </c>
       <c r="E184" s="2">
-        <v>-22.818079</v>
+        <v>-22.904494</v>
       </c>
       <c r="F184" s="2">
-        <v>-43.287855</v>
+        <v>-43.2862</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H184" s="1"/>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>92</v>
@@ -7269,10 +7267,10 @@
         <v>83</v>
       </c>
       <c r="E185" s="2">
-        <v>-22.803149</v>
+        <v>-22.86431</v>
       </c>
       <c r="F185" s="2">
-        <v>-43.202801</v>
+        <v>-43.548962</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>143</v>
@@ -7281,10 +7279,10 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>92</v>
@@ -7293,10 +7291,10 @@
         <v>83</v>
       </c>
       <c r="E186" s="2">
-        <v>-22.904494</v>
+        <v>-22.883813</v>
       </c>
       <c r="F186" s="2">
-        <v>-43.2862</v>
+        <v>-43.291208</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>143</v>
@@ -7305,10 +7303,10 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>92</v>
@@ -7317,10 +7315,10 @@
         <v>83</v>
       </c>
       <c r="E187" s="2">
-        <v>-22.86431</v>
+        <v>-22.885381</v>
       </c>
       <c r="F187" s="2">
-        <v>-43.548962</v>
+        <v>-43.226628</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>143</v>
@@ -7329,10 +7327,10 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>92</v>
@@ -7341,10 +7339,10 @@
         <v>83</v>
       </c>
       <c r="E188" s="2">
-        <v>-22.883813</v>
+        <v>-22.891011</v>
       </c>
       <c r="F188" s="2">
-        <v>-43.291208</v>
+        <v>-43.676538</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>143</v>
@@ -7353,22 +7351,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E189" s="2">
-        <v>-22.885381</v>
+        <v>-22.820066</v>
       </c>
       <c r="F189" s="2">
-        <v>-43.226628</v>
+        <v>-43.0041</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>143</v>
@@ -7377,22 +7375,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E190" s="2">
-        <v>-22.891011</v>
+        <v>-22.845075</v>
       </c>
       <c r="F190" s="2">
-        <v>-43.676538</v>
+        <v>-43.0931</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>143</v>
@@ -7401,10 +7399,10 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>105</v>
@@ -7413,22 +7411,24 @@
         <v>83</v>
       </c>
       <c r="E191" s="2">
-        <v>-22.820066</v>
+        <v>-22.826275</v>
       </c>
       <c r="F191" s="2">
-        <v>-43.0041</v>
+        <v>-43.052213</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H191" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>105</v>
@@ -7437,10 +7437,10 @@
         <v>83</v>
       </c>
       <c r="E192" s="2">
-        <v>-22.845075</v>
+        <v>-22.8545885</v>
       </c>
       <c r="F192" s="2">
-        <v>-43.0931</v>
+        <v>-43.0209699</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>143</v>
@@ -7449,48 +7449,46 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>105</v>
+        <v>519</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E193" s="2">
-        <v>-22.826275</v>
+        <v>-22.798897</v>
       </c>
       <c r="F193" s="2">
-        <v>-43.052213</v>
+        <v>-43.357463</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H193" s="1"/>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>105</v>
+        <v>522</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>83</v>
+        <v>523</v>
       </c>
       <c r="E194" s="2">
-        <v>-22.8545885</v>
+        <v>-21.794682</v>
       </c>
       <c r="F194" s="2">
-        <v>-43.0209699</v>
+        <v>-55.725403</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>143</v>
@@ -7499,22 +7497,22 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>83</v>
+        <v>523</v>
       </c>
       <c r="E195" s="2">
-        <v>-22.798897</v>
+        <v>-8.731204999999999</v>
       </c>
       <c r="F195" s="2">
-        <v>-43.357463</v>
+        <v>-63.907827</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>143</v>
@@ -7523,22 +7521,22 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E196" s="2">
-        <v>-21.794682</v>
+        <v>2.800786</v>
       </c>
       <c r="F196" s="2">
-        <v>-55.725403</v>
+        <v>-60.698632</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>143</v>
@@ -7547,46 +7545,48 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="E197" s="2">
-        <v>-8.731204999999999</v>
+        <v>-10.948019</v>
       </c>
       <c r="F197" s="2">
-        <v>-63.907827</v>
+        <v>-37.071057</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H197" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E198" s="2">
-        <v>2.800786</v>
+        <v>-10.907129</v>
       </c>
       <c r="F198" s="2">
-        <v>-60.698632</v>
+        <v>-37.087719</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>143</v>
@@ -7595,10 +7595,10 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>532</v>
@@ -7607,36 +7607,34 @@
         <v>533</v>
       </c>
       <c r="E199" s="2">
-        <v>-10.948019</v>
+        <v>-21.798083</v>
       </c>
       <c r="F199" s="2">
-        <v>-37.071057</v>
+        <v>-55.718536</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H199" s="1"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>533</v>
       </c>
       <c r="E200" s="2">
-        <v>-10.907129</v>
+        <v>-10.67701</v>
       </c>
       <c r="F200" s="2">
-        <v>-37.087719</v>
+        <v>-37.442282</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>143</v>
@@ -7645,22 +7643,22 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>533</v>
       </c>
       <c r="E201" s="2">
-        <v>-21.798083</v>
+        <v>-10.846581</v>
       </c>
       <c r="F201" s="2">
-        <v>-55.718536</v>
+        <v>-37.086934</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>143</v>
@@ -7669,46 +7667,48 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="1" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>533</v>
+        <v>109</v>
       </c>
       <c r="E202" s="2">
-        <v>-10.67701</v>
+        <v>-21.78999</v>
       </c>
       <c r="F202" s="2">
-        <v>-37.442282</v>
+        <v>-48.17672</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H202" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="1" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>533</v>
+        <v>109</v>
       </c>
       <c r="E203" s="2">
-        <v>-10.846581</v>
+        <v>-21.205883</v>
       </c>
       <c r="F203" s="2">
-        <v>-37.086934</v>
+        <v>-50.446724</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>143</v>
@@ -7717,72 +7717,72 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="1" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E204" s="2">
-        <v>-21.78999</v>
+        <v>-22.31701</v>
       </c>
       <c r="F204" s="2">
-        <v>-48.17672</v>
+        <v>-49.0688</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H204" s="1"/>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E205" s="2">
-        <v>-21.205883</v>
+        <v>-22.944982</v>
       </c>
       <c r="F205" s="2">
-        <v>-50.446724</v>
+        <v>-47.1099</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H205" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E206" s="2">
-        <v>-22.31701</v>
+        <v>-22.903911</v>
       </c>
       <c r="F206" s="2">
-        <v>-49.0688</v>
+        <v>-47.06559</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>143</v>
@@ -7791,10 +7791,10 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>555</v>
@@ -7803,10 +7803,10 @@
         <v>109</v>
       </c>
       <c r="E207" s="2">
-        <v>-22.944982</v>
+        <v>-22.926235</v>
       </c>
       <c r="F207" s="2">
-        <v>-47.1099</v>
+        <v>-47.039738</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>12</v>
@@ -7817,22 +7817,22 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E208" s="2">
-        <v>-22.903911</v>
+        <v>-23.624733</v>
       </c>
       <c r="F208" s="2">
-        <v>-47.06559</v>
+        <v>-45.4207</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>143</v>
@@ -7841,48 +7841,46 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E209" s="2">
-        <v>-22.926235</v>
+        <v>-23.521825</v>
       </c>
       <c r="F209" s="2">
-        <v>-47.039738</v>
+        <v>-46.828639</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H209" s="1"/>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E210" s="2">
-        <v>-23.624733</v>
+        <v>-23.600256</v>
       </c>
       <c r="F210" s="2">
-        <v>-45.4207</v>
+        <v>-46.8583</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>143</v>
@@ -7891,22 +7889,22 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="1" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E211" s="2">
-        <v>-23.521825</v>
+        <v>-23.689322</v>
       </c>
       <c r="F211" s="2">
-        <v>-46.828639</v>
+        <v>-46.591006</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>143</v>
@@ -7915,22 +7913,22 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E212" s="2">
-        <v>-23.600256</v>
+        <v>-23.651558</v>
       </c>
       <c r="F212" s="2">
-        <v>-46.8583</v>
+        <v>-46.850696</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>143</v>
@@ -7939,22 +7937,22 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E213" s="2">
-        <v>-23.689322</v>
+        <v>-23.3344</v>
       </c>
       <c r="F213" s="2">
-        <v>-46.591006</v>
+        <v>-46.73678</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>143</v>
@@ -7963,46 +7961,48 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>574</v>
+        <v>112</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E214" s="2">
-        <v>-23.651558</v>
+        <v>-23.454849</v>
       </c>
       <c r="F214" s="2">
-        <v>-46.850696</v>
+        <v>-46.534391</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H214" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>577</v>
+        <v>112</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E215" s="2">
-        <v>-23.3344</v>
+        <v>-23.427285</v>
       </c>
       <c r="F215" s="2">
-        <v>-46.73678</v>
+        <v>-46.497776</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>143</v>
@@ -8011,48 +8011,46 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>112</v>
+        <v>584</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E216" s="2">
-        <v>-23.454849</v>
+        <v>-22.863508</v>
       </c>
       <c r="F216" s="2">
-        <v>-46.534391</v>
+        <v>-47.210991</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H216" s="1"/>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>112</v>
+        <v>587</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E217" s="2">
-        <v>-23.427285</v>
+        <v>-21.81373</v>
       </c>
       <c r="F217" s="2">
-        <v>-46.497776</v>
+        <v>-55.710979</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>143</v>
@@ -8061,22 +8059,22 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="1" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E218" s="2">
-        <v>-22.863508</v>
+        <v>-23.50685</v>
       </c>
       <c r="F218" s="2">
-        <v>-47.210991</v>
+        <v>-46.345037</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>143</v>
@@ -8085,46 +8083,48 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="1" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E219" s="2">
-        <v>-21.81373</v>
+        <v>-23.018257</v>
       </c>
       <c r="F219" s="2">
-        <v>-55.710979</v>
+        <v>-46.841537</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H219" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="1" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E220" s="2">
-        <v>-23.50685</v>
+        <v>-23.52887</v>
       </c>
       <c r="F220" s="2">
-        <v>-46.345037</v>
+        <v>-46.893197</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>143</v>
@@ -8133,48 +8133,46 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="1" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E221" s="2">
-        <v>-23.018257</v>
+        <v>-23.191075</v>
       </c>
       <c r="F221" s="2">
-        <v>-46.841537</v>
+        <v>-46.876486</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H221" s="1"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E222" s="2">
-        <v>-23.52887</v>
+        <v>-23.176602</v>
       </c>
       <c r="F222" s="2">
-        <v>-46.893197</v>
+        <v>-46.895763</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>143</v>
@@ -8183,22 +8181,22 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>599</v>
+        <v>117</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E223" s="2">
-        <v>-23.191075</v>
+        <v>-22.561438</v>
       </c>
       <c r="F223" s="2">
-        <v>-46.876486</v>
+        <v>-47.404179</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>143</v>
@@ -8207,22 +8205,22 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E224" s="2">
-        <v>-23.176602</v>
+        <v>-23.6637</v>
       </c>
       <c r="F224" s="2">
-        <v>-46.895763</v>
+        <v>-46.459211</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>143</v>
@@ -8231,22 +8229,22 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>117</v>
+        <v>609</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E225" s="2">
-        <v>-22.561438</v>
+        <v>-23.543285</v>
       </c>
       <c r="F225" s="2">
-        <v>-47.404179</v>
+        <v>-46.210988</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>143</v>
@@ -8255,22 +8253,22 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="1" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E226" s="2">
-        <v>-23.6637</v>
+        <v>-23.511712</v>
       </c>
       <c r="F226" s="2">
-        <v>-46.459211</v>
+        <v>-46.195184</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>143</v>
@@ -8279,10 +8277,10 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>609</v>
@@ -8291,34 +8289,36 @@
         <v>109</v>
       </c>
       <c r="E227" s="2">
-        <v>-23.543285</v>
+        <v>-23.512478</v>
       </c>
       <c r="F227" s="2">
-        <v>-46.210988</v>
+        <v>-46.188989</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H227" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E228" s="2">
-        <v>-23.511712</v>
+        <v>-23.540651</v>
       </c>
       <c r="F228" s="2">
-        <v>-46.195184</v>
+        <v>-46.769536</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>143</v>
@@ -8327,48 +8327,46 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E229" s="2">
-        <v>-23.512478</v>
+        <v>-22.774415</v>
       </c>
       <c r="F229" s="2">
-        <v>-46.188989</v>
+        <v>-47.1466</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H229" s="1"/>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="1" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E230" s="2">
-        <v>-23.540651</v>
+        <v>-22.720401</v>
       </c>
       <c r="F230" s="2">
-        <v>-46.769536</v>
+        <v>-47.6462</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>143</v>
@@ -8377,22 +8375,22 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="1" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E231" s="2">
-        <v>-22.774415</v>
+        <v>-22.740199</v>
       </c>
       <c r="F231" s="2">
-        <v>-47.1466</v>
+        <v>-47.6472</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>143</v>
@@ -8401,46 +8399,48 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E232" s="2">
-        <v>-22.720401</v>
+        <v>-23.996387</v>
       </c>
       <c r="F232" s="2">
-        <v>-47.6462</v>
+        <v>-46.4088</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H232" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E233" s="2">
-        <v>-22.740199</v>
+        <v>-24.031913</v>
       </c>
       <c r="F233" s="2">
-        <v>-47.6472</v>
+        <v>-46.4953</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>143</v>
@@ -8449,10 +8449,10 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>627</v>
@@ -8461,36 +8461,34 @@
         <v>109</v>
       </c>
       <c r="E234" s="2">
-        <v>-23.996387</v>
+        <v>-24.004524</v>
       </c>
       <c r="F234" s="2">
-        <v>-46.4088</v>
+        <v>-46.429581</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H234" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H234" s="1"/>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E235" s="2">
-        <v>-24.031913</v>
+        <v>-22.13806</v>
       </c>
       <c r="F235" s="2">
-        <v>-46.4953</v>
+        <v>-51.413853</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>143</v>
@@ -8499,22 +8497,22 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E236" s="2">
-        <v>-24.004524</v>
+        <v>-23.703437</v>
       </c>
       <c r="F236" s="2">
-        <v>-46.429581</v>
+        <v>-46.397408</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>143</v>
@@ -8523,22 +8521,22 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="1" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E237" s="2">
-        <v>-22.13806</v>
+        <v>-21.202058</v>
       </c>
       <c r="F237" s="2">
-        <v>-51.413853</v>
+        <v>-47.763409</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>143</v>
@@ -8547,22 +8545,22 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="1" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E238" s="2">
-        <v>-23.703437</v>
+        <v>-21.188129</v>
       </c>
       <c r="F238" s="2">
-        <v>-46.397408</v>
+        <v>-47.784816</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>143</v>
@@ -8571,10 +8569,10 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>640</v>
@@ -8583,10 +8581,10 @@
         <v>109</v>
       </c>
       <c r="E239" s="2">
-        <v>-21.202058</v>
+        <v>-21.174614</v>
       </c>
       <c r="F239" s="2">
-        <v>-47.763409</v>
+        <v>-47.79425</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>143</v>
@@ -8595,10 +8593,10 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>640</v>
@@ -8607,34 +8605,36 @@
         <v>109</v>
       </c>
       <c r="E240" s="2">
-        <v>-21.188129</v>
+        <v>-21.203039</v>
       </c>
       <c r="F240" s="2">
-        <v>-47.784816</v>
+        <v>-47.808771</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H240" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E241" s="2">
-        <v>-21.174614</v>
+        <v>-22.415213</v>
       </c>
       <c r="F241" s="2">
-        <v>-47.79425</v>
+        <v>-47.5747</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>143</v>
@@ -8643,48 +8643,46 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="1" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E242" s="2">
-        <v>-21.203039</v>
+        <v>-22.746895</v>
       </c>
       <c r="F242" s="2">
-        <v>-47.808771</v>
+        <v>-47.366659</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H242" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H242" s="1"/>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E243" s="2">
-        <v>-22.415213</v>
+        <v>-23.619548</v>
       </c>
       <c r="F243" s="2">
-        <v>-47.5747</v>
+        <v>-46.542058</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>143</v>
@@ -8693,22 +8691,22 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E244" s="2">
-        <v>-22.746895</v>
+        <v>-23.665698</v>
       </c>
       <c r="F244" s="2">
-        <v>-47.366659</v>
+        <v>-46.4966</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>143</v>
@@ -8717,10 +8715,10 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>655</v>
@@ -8729,10 +8727,10 @@
         <v>109</v>
       </c>
       <c r="E245" s="2">
-        <v>-23.619548</v>
+        <v>-23.652679</v>
       </c>
       <c r="F245" s="2">
-        <v>-46.542058</v>
+        <v>-46.526217</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>143</v>
@@ -8741,10 +8739,10 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>655</v>
@@ -8753,10 +8751,10 @@
         <v>109</v>
       </c>
       <c r="E246" s="2">
-        <v>-23.665698</v>
+        <v>-23.68377</v>
       </c>
       <c r="F246" s="2">
-        <v>-46.4966</v>
+        <v>-46.547399</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>143</v>
@@ -8765,10 +8763,10 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>655</v>
@@ -8777,10 +8775,10 @@
         <v>109</v>
       </c>
       <c r="E247" s="2">
-        <v>-23.652679</v>
+        <v>-23.704</v>
       </c>
       <c r="F247" s="2">
-        <v>-46.526217</v>
+        <v>-46.504722</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>143</v>
@@ -8789,22 +8787,22 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E248" s="2">
-        <v>-23.68377</v>
+        <v>-23.93087</v>
       </c>
       <c r="F248" s="2">
-        <v>-46.547399</v>
+        <v>-46.356307</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>143</v>
@@ -8813,46 +8811,48 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="1" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E249" s="2">
-        <v>-23.704</v>
+        <v>-23.957779</v>
       </c>
       <c r="F249" s="2">
-        <v>-46.504722</v>
+        <v>-46.332246</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H249" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E250" s="2">
-        <v>-23.93087</v>
+        <v>-23.468999</v>
       </c>
       <c r="F250" s="2">
-        <v>-46.356307</v>
+        <v>-47.477501</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>143</v>
@@ -8861,36 +8861,36 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E251" s="2">
-        <v>-23.957779</v>
+        <v>-23.530145</v>
       </c>
       <c r="F251" s="2">
-        <v>-46.332246</v>
+        <v>-47.464084</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>671</v>
@@ -8899,60 +8899,60 @@
         <v>109</v>
       </c>
       <c r="E252" s="2">
-        <v>-23.468999</v>
+        <v>-23.491095</v>
       </c>
       <c r="F252" s="2">
-        <v>-47.477501</v>
+        <v>-47.445099</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H252" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="1" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E253" s="2">
-        <v>-23.530145</v>
+        <v>-23.538927</v>
       </c>
       <c r="F253" s="2">
-        <v>-47.464084</v>
+        <v>-46.2957</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H253" s="1"/>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>671</v>
+        <v>120</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E254" s="2">
-        <v>-23.491095</v>
+        <v>-23.688945</v>
       </c>
       <c r="F254" s="2">
-        <v>-47.445099</v>
+        <v>-46.573754</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>12</v>
@@ -8963,110 +8963,110 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E255" s="2">
-        <v>-23.538927</v>
+        <v>-23.613882</v>
       </c>
       <c r="F255" s="2">
-        <v>-46.2957</v>
+        <v>-46.578116</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H255" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>120</v>
+        <v>686</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E256" s="2">
-        <v>-23.688945</v>
+        <v>-23.228215</v>
       </c>
       <c r="F256" s="2">
-        <v>-46.573754</v>
+        <v>-45.908166</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H256" s="1"/>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="1" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>683</v>
+        <v>123</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E257" s="2">
-        <v>-23.613882</v>
+        <v>-23.523142</v>
       </c>
       <c r="F257" s="2">
-        <v>-46.578116</v>
+        <v>-46.4751</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H257" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H257" s="1"/>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>686</v>
+        <v>123</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E258" s="2">
-        <v>-23.228215</v>
+        <v>-23.628646</v>
       </c>
       <c r="F258" s="2">
-        <v>-45.908166</v>
+        <v>-46.667667</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H258" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>123</v>
@@ -9075,22 +9075,24 @@
         <v>109</v>
       </c>
       <c r="E259" s="2">
-        <v>-23.523142</v>
+        <v>-23.517199</v>
       </c>
       <c r="F259" s="2">
-        <v>-46.4751</v>
+        <v>-46.726564</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H259" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>123</v>
@@ -9099,24 +9101,22 @@
         <v>109</v>
       </c>
       <c r="E260" s="2">
-        <v>-23.628646</v>
+        <v>-23.5631</v>
       </c>
       <c r="F260" s="2">
-        <v>-46.667667</v>
+        <v>-46.50663</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H260" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H260" s="1"/>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="1" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>123</v>
@@ -9125,24 +9125,22 @@
         <v>109</v>
       </c>
       <c r="E261" s="2">
-        <v>-23.517199</v>
+        <v>-23.519656</v>
       </c>
       <c r="F261" s="2">
-        <v>-46.726564</v>
+        <v>-46.673198</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H261" s="1"/>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>123</v>
@@ -9151,10 +9149,10 @@
         <v>109</v>
       </c>
       <c r="E262" s="2">
-        <v>-23.5631</v>
+        <v>-23.498628</v>
       </c>
       <c r="F262" s="2">
-        <v>-46.50663</v>
+        <v>-46.664033</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>143</v>
@@ -9163,10 +9161,10 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="1" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>123</v>
@@ -9175,10 +9173,10 @@
         <v>109</v>
       </c>
       <c r="E263" s="2">
-        <v>-23.519656</v>
+        <v>-23.726365</v>
       </c>
       <c r="F263" s="2">
-        <v>-46.673198</v>
+        <v>-46.700617</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>143</v>
@@ -9187,10 +9185,10 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>123</v>
@@ -9199,10 +9197,10 @@
         <v>109</v>
       </c>
       <c r="E264" s="2">
-        <v>-23.498628</v>
+        <v>-23.467832</v>
       </c>
       <c r="F264" s="2">
-        <v>-46.664033</v>
+        <v>-46.572285</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>143</v>
@@ -9211,10 +9209,10 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>123</v>
@@ -9223,22 +9221,24 @@
         <v>109</v>
       </c>
       <c r="E265" s="2">
-        <v>-23.726365</v>
+        <v>-23.505356</v>
       </c>
       <c r="F265" s="2">
-        <v>-46.700617</v>
+        <v>-46.68976</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H265" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>123</v>
@@ -9247,22 +9247,24 @@
         <v>109</v>
       </c>
       <c r="E266" s="2">
-        <v>-23.467832</v>
+        <v>-23.526843</v>
       </c>
       <c r="F266" s="2">
-        <v>-46.572285</v>
+        <v>-46.396466</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H266" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>123</v>
@@ -9271,24 +9273,22 @@
         <v>109</v>
       </c>
       <c r="E267" s="2">
-        <v>-23.505356</v>
+        <v>-23.542258</v>
       </c>
       <c r="F267" s="2">
-        <v>-46.68976</v>
+        <v>-46.423996</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H267" s="1"/>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>123</v>
@@ -9297,10 +9297,10 @@
         <v>109</v>
       </c>
       <c r="E268" s="2">
-        <v>-23.526843</v>
+        <v>-23.663383</v>
       </c>
       <c r="F268" s="2">
-        <v>-46.396466</v>
+        <v>-46.680224</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>12</v>
@@ -9311,10 +9311,10 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="1" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>123</v>
@@ -9323,10 +9323,10 @@
         <v>109</v>
       </c>
       <c r="E269" s="2">
-        <v>-23.542258</v>
+        <v>-23.546431</v>
       </c>
       <c r="F269" s="2">
-        <v>-46.423996</v>
+        <v>-46.9469</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>143</v>
@@ -9335,10 +9335,10 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="1" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>123</v>
@@ -9347,24 +9347,22 @@
         <v>109</v>
       </c>
       <c r="E270" s="2">
-        <v>-23.663383</v>
+        <v>-23.553196</v>
       </c>
       <c r="F270" s="2">
-        <v>-46.680224</v>
+        <v>-46.488428</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H270" s="1"/>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>123</v>
@@ -9373,10 +9371,10 @@
         <v>109</v>
       </c>
       <c r="E271" s="2">
-        <v>-23.546431</v>
+        <v>-23.467191</v>
       </c>
       <c r="F271" s="2">
-        <v>-46.9469</v>
+        <v>-46.584729</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>143</v>
@@ -9385,10 +9383,10 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>123</v>
@@ -9397,10 +9395,10 @@
         <v>109</v>
       </c>
       <c r="E272" s="2">
-        <v>-23.553196</v>
+        <v>-23.641707</v>
       </c>
       <c r="F272" s="2">
-        <v>-46.488428</v>
+        <v>-46.644191</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>143</v>
@@ -9409,10 +9407,10 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="1" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>123</v>
@@ -9421,10 +9419,10 @@
         <v>109</v>
       </c>
       <c r="E273" s="2">
-        <v>-23.467191</v>
+        <v>-23.565317</v>
       </c>
       <c r="F273" s="2">
-        <v>-46.584729</v>
+        <v>-46.446522</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>143</v>
@@ -9433,10 +9431,10 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="1" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>123</v>
@@ -9445,10 +9443,10 @@
         <v>109</v>
       </c>
       <c r="E274" s="2">
-        <v>-23.641707</v>
+        <v>-23.552853</v>
       </c>
       <c r="F274" s="2">
-        <v>-46.644191</v>
+        <v>-46.742244</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>143</v>
@@ -9457,10 +9455,10 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="1" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>123</v>
@@ -9469,22 +9467,24 @@
         <v>109</v>
       </c>
       <c r="E275" s="2">
-        <v>-23.565317</v>
+        <v>-23.556875</v>
       </c>
       <c r="F275" s="2">
-        <v>-46.446522</v>
+        <v>-46.748359</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H275" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="1" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>123</v>
@@ -9493,10 +9493,10 @@
         <v>109</v>
       </c>
       <c r="E276" s="2">
-        <v>-23.552853</v>
+        <v>-23.449862</v>
       </c>
       <c r="F276" s="2">
-        <v>-46.742244</v>
+        <v>-46.722528</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>143</v>
@@ -9505,10 +9505,10 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>123</v>
@@ -9517,24 +9517,22 @@
         <v>109</v>
       </c>
       <c r="E277" s="2">
-        <v>-23.556875</v>
+        <v>-23.678527</v>
       </c>
       <c r="F277" s="2">
-        <v>-46.748359</v>
+        <v>-46.695575</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H277" s="1"/>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="1" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>123</v>
@@ -9543,10 +9541,10 @@
         <v>109</v>
       </c>
       <c r="E278" s="2">
-        <v>-23.449862</v>
+        <v>-23.510605</v>
       </c>
       <c r="F278" s="2">
-        <v>-46.722528</v>
+        <v>-46.430522</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>143</v>
@@ -9555,10 +9553,10 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>123</v>
@@ -9567,10 +9565,10 @@
         <v>109</v>
       </c>
       <c r="E279" s="2">
-        <v>-23.678527</v>
+        <v>-23.512795</v>
       </c>
       <c r="F279" s="2">
-        <v>-46.695575</v>
+        <v>-46.553893</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>143</v>
@@ -9579,10 +9577,10 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="1" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>123</v>
@@ -9591,22 +9589,24 @@
         <v>109</v>
       </c>
       <c r="E280" s="2">
-        <v>-23.510605</v>
+        <v>-23.515934</v>
       </c>
       <c r="F280" s="2">
-        <v>-46.430522</v>
+        <v>-46.51868</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H280" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>123</v>
@@ -9615,22 +9615,24 @@
         <v>109</v>
       </c>
       <c r="E281" s="2">
-        <v>-23.512795</v>
+        <v>-23.584363</v>
       </c>
       <c r="F281" s="2">
-        <v>-46.553893</v>
+        <v>-46.747152</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H281" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="1" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>123</v>
@@ -9639,24 +9641,22 @@
         <v>109</v>
       </c>
       <c r="E282" s="2">
-        <v>-23.515934</v>
+        <v>-23.610402</v>
       </c>
       <c r="F282" s="2">
-        <v>-46.51868</v>
+        <v>-46.474088</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H282" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H282" s="1"/>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="1" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>123</v>
@@ -9665,24 +9665,22 @@
         <v>109</v>
       </c>
       <c r="E283" s="2">
-        <v>-23.584363</v>
+        <v>-23.495519</v>
       </c>
       <c r="F283" s="2">
-        <v>-46.747152</v>
+        <v>-46.434025</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H283" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H283" s="1"/>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="1" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>123</v>
@@ -9691,10 +9689,10 @@
         <v>109</v>
       </c>
       <c r="E284" s="2">
-        <v>-23.610402</v>
+        <v>-23.501481</v>
       </c>
       <c r="F284" s="2">
-        <v>-46.474088</v>
+        <v>-46.470277</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>143</v>
@@ -9703,10 +9701,10 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>123</v>
@@ -9715,10 +9713,10 @@
         <v>109</v>
       </c>
       <c r="E285" s="2">
-        <v>-23.495519</v>
+        <v>-23.649655</v>
       </c>
       <c r="F285" s="2">
-        <v>-46.434025</v>
+        <v>-46.661631</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>143</v>
@@ -9727,10 +9725,10 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="1" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>123</v>
@@ -9739,10 +9737,10 @@
         <v>109</v>
       </c>
       <c r="E286" s="2">
-        <v>-23.501481</v>
+        <v>-23.602287</v>
       </c>
       <c r="F286" s="2">
-        <v>-46.470277</v>
+        <v>-46.511086</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>143</v>
@@ -9751,10 +9749,10 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>123</v>
@@ -9763,10 +9761,10 @@
         <v>109</v>
       </c>
       <c r="E287" s="2">
-        <v>-23.649655</v>
+        <v>-23.472677</v>
       </c>
       <c r="F287" s="2">
-        <v>-46.661631</v>
+        <v>-46.608557</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>143</v>
@@ -9775,10 +9773,10 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>123</v>
@@ -9787,10 +9785,10 @@
         <v>109</v>
       </c>
       <c r="E288" s="2">
-        <v>-23.602287</v>
+        <v>-23.617824</v>
       </c>
       <c r="F288" s="2">
-        <v>-46.511086</v>
+        <v>-46.609115</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>143</v>
@@ -9799,10 +9797,10 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>123</v>
@@ -9811,10 +9809,10 @@
         <v>109</v>
       </c>
       <c r="E289" s="2">
-        <v>-23.472677</v>
+        <v>-23.772299</v>
       </c>
       <c r="F289" s="2">
-        <v>-46.608557</v>
+        <v>-46.719476</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>143</v>
@@ -9823,10 +9821,10 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="1" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>123</v>
@@ -9835,10 +9833,10 @@
         <v>109</v>
       </c>
       <c r="E290" s="2">
-        <v>-23.617824</v>
+        <v>-23.551045</v>
       </c>
       <c r="F290" s="2">
-        <v>-46.609115</v>
+        <v>-46.527482</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>143</v>
@@ -9847,10 +9845,10 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>123</v>
@@ -9859,10 +9857,10 @@
         <v>109</v>
       </c>
       <c r="E291" s="2">
-        <v>-23.772299</v>
+        <v>-23.595196</v>
       </c>
       <c r="F291" s="2">
-        <v>-46.719476</v>
+        <v>-46.737845</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>143</v>
@@ -9871,22 +9869,22 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>123</v>
+        <v>759</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E292" s="2">
-        <v>-23.551045</v>
+        <v>-23.962595</v>
       </c>
       <c r="F292" s="2">
-        <v>-46.527482</v>
+        <v>-46.380576</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>143</v>
@@ -9895,22 +9893,22 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>123</v>
+        <v>762</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E293" s="2">
-        <v>-23.595196</v>
+        <v>-23.64102</v>
       </c>
       <c r="F293" s="2">
-        <v>-46.737845</v>
+        <v>-46.8048</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>143</v>
@@ -9919,34 +9917,36 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="1" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E294" s="2">
-        <v>-23.962595</v>
+        <v>-23.608467</v>
       </c>
       <c r="F294" s="2">
-        <v>-46.380576</v>
+        <v>-46.75295</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H294" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>762</v>
@@ -9955,10 +9955,10 @@
         <v>109</v>
       </c>
       <c r="E295" s="2">
-        <v>-23.64102</v>
+        <v>-23.613221</v>
       </c>
       <c r="F295" s="2">
-        <v>-46.8048</v>
+        <v>-46.781066</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>143</v>
@@ -9967,48 +9967,48 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="1" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E296" s="2">
-        <v>-23.608467</v>
+        <v>-23.529796</v>
       </c>
       <c r="F296" s="2">
-        <v>-46.75295</v>
+        <v>-46.578482</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E297" s="2">
-        <v>-23.613221</v>
+        <v>-23.024431</v>
       </c>
       <c r="F297" s="2">
-        <v>-46.781066</v>
+        <v>-45.55644</v>
       </c>
       <c r="G297" s="1" t="s">
         <v>143</v>
@@ -10017,101 +10017,51 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="1" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>109</v>
+        <v>776</v>
       </c>
       <c r="E298" s="2">
-        <v>-23.529796</v>
+        <v>-10.250802</v>
       </c>
       <c r="F298" s="2">
-        <v>-46.578482</v>
+        <v>-48.333348</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H298" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H298" s="1"/>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="1" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>109</v>
+        <v>776</v>
       </c>
       <c r="E299" s="2">
-        <v>-23.024431</v>
+        <v>-10.207782</v>
       </c>
       <c r="F299" s="2">
-        <v>-45.55644</v>
+        <v>-48.330219</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H299" s="1"/>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="A300" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E300" s="2">
-        <v>-10.250802</v>
-      </c>
-      <c r="F300" s="2">
-        <v>-48.333348</v>
-      </c>
-      <c r="G300" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H300" s="1"/>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E301" s="2">
-        <v>-10.207782</v>
-      </c>
-      <c r="F301" s="2">
-        <v>-48.330219</v>
-      </c>
-      <c r="G301" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H301" s="1" t="s">
+      <c r="H299" s="1" t="s">
         <v>201</v>
       </c>
     </row>
